--- a/fastqFiles/fastq_J.PLAGGENBERG_03.18.20.xlsx
+++ b/fastqFiles/fastq_J.PLAGGENBERG_03.18.20.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/fastqFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF6C3B1-F63E-B040-9ACD-7D7FAB551AEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="17680" yWindow="460" windowWidth="20920" windowHeight="19800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,374 +35,356 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="112">
   <si>
-    <t xml:space="preserve">libraryDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libraryPreparer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">librarySampleNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">runNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laneNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequencerModel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowcellType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purpose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tapestationConc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">volumePooled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readsObtained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fastqFileName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02.03.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J.PLAGGENBERG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NextSeq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HighOutput</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fullRNASeq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_1_GTAC27_SIC_Index2_06_TGTTTGTATC_GACCTTGT_S2_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_2_GTAC28_SIC_Index2_06_TACATGGATC_GACCTTGT_S3_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_3_GTAC29_SIC_Index2_06_GTTCTCAATC_GACCTTGT_S4_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_4_GTAC30_SIC_Index2_06_CTGGTGGATC_GACCTTGT_S5_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_5_GTAC31_SIC_Index2_06_TGCCCATATC_GACCTTGT_S6_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_6_GTAC32_SIC_Index2_06_AAACCTTATC_GACCTTGT_S7_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_7_GTAC33_SIC_Index2_06_ACCATACATC_GACCTTGT_S8_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_8_GTAC34_SIC_Index2_06_AATACGCATC_GACCTTGT_S9_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_9_GTAC35_SIC_Index2_06_CGCTACAATC_GACCTTGT_S10_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_10_GTAC36_SIC_Index2_06_TGGCATAATC_GACCTTGT_S11_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_11_GTAC37_SIC_Index2_06_TTTTGTCATC_GACCTTGT_S12_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_12_GTAC38_SIC_Index2_06_ACCCACTATC_GACCTTGT_S13_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_13_GTAC39_SIC_Index2_06_CCGGACCATC_GACCTTGT_S14_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_14_GTAC40_SIC_Index2_06_GTACGGCATC_GACCTTGT_S15_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_15_GTAC41_SIC_Index2_06_TTGCCCCATC_GACCTTGT_S16_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_16_GTAC42_SIC_Index2_06_ACTCCAAATC_GACCTTGT_S17_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_17_GTAC43_SIC_Index2_06_TGTGCCAATC_GACCTTGT_S18_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_18_GTAC44_SIC_Index2_06_AACGGAGATC_GACCTTGT_S19_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_19_GTAC45_SIC_Index2_06_GATAGTTATC_GACCTTGT_S20_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_20_GTAC46_SIC_Index2_06_GGTGAATATC_GACCTTGT_S21_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_21_GTAC47_SIC_Index2_06_ATGTTCTATC_GACCTTGT_S22_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_22_GTAC48_SIC_Index2_06_GTAAAAAATC_GACCTTGT_S23_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_23_GTAC49_SIC_Index2_06_GTCTGATATC_GACCTTGT_S24_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_24_GTAC50_SIC_Index2_06_CAATATCATC_GACCTTGT_S25_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_25_GTAC51_SIC_Index2_06_CTCCCGAATC_GACCTTGT_S26_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_26_GTAC52_SIC_Index2_06_GCCGTTTATC_GACCTTGT_S27_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_27_GTAC53_SIC_Index2_06_TAGGTAAATC_GACCTTGT_S28_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_28_GTAC54_SIC_Index2_06_TCGAGATATC_GACCTTGT_S29_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_29_GTAC55_SIC_Index2_06_CATTTAGATC_GACCTTGT_S30_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_30_GTAC56_SIC_Index2_06_TCCGGGAATC_GACCTTGT_S31_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_31_GTAC57_SIC_Index2_06_CGAAAGTATC_GACCTTGT_S32_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_32_GTAC58_SIC_Index2_06_GCCTCCCATC_GACCTTGT_S33_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_33_GTAC59_SIC_Index2_06_AGTTATGATC_GACCTTGT_S34_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_34_GTAC60_SIC_Index2_06_CTGCAATATC_GACCTTGT_S35_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_35_GTAC61_SIC_Index2_06_CAAGCCGATC_GACCTTGT_S36_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_36_GTAC62_SIC_Index2_06_GGGTCAAATC_GACCTTGT_S37_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_37_GTAC63_SIC_Index2_06_GCAACGCATC_GACCTTGT_S38_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_38_GTAC64_SIC_Index2_06_TGATTACATC_GACCTTGT_S39_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_39_GTAC65_SIC_Index2_06_TGCTGGGATC_GACCTTGT_S40_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_40_GTAC66_SIC_Index2_06_GACACAGATC_GACCTTGT_S41_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02.18.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_47_GTAC28_SIC_Index2_09_TACATGGATC_TGTGAGGT_S48_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_48_GTAC29_SIC_Index2_09_GTTCTCAATC_TGTGAGGT_S49_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_49_GTAC30_SIC_Index2_09_CTGGTGGATC_TGTGAGGT_S50_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_50_GTAC31_SIC_Index2_09_TGCCCATATC_TGTGAGGT_S51_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_51_GTAC32_SIC_Index2_09_AAACCTTATC_TGTGAGGT_S52_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_52_GTAC33_SIC_Index2_09_ACCATACATC_TGTGAGGT_S53_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_53_GTAC34_SIC_Index2_09_AATACGCATC_TGTGAGGT_S54_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_54_GTAC35_SIC_Index2_09_CGCTACAATC_TGTGAGGT_S55_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_55_GTAC36_SIC_Index2_09_TGGCATAATC_TGTGAGGT_S56_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_56_GTAC37_SIC_Index2_09_TTTTGTCATC_TGTGAGGT_S57_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_57_GTAC38_SIC_Index2_09_ACCCACTATC_TGTGAGGT_S58_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_58_GTAC39_SIC_Index2_09_CCGGACCATC_TGTGAGGT_S59_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_59_GTAC40_SIC_Index2_09_GTACGGCATC_TGTGAGGT_S60_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_60_GTAC1_SIC_Index2_07_TGAGGTTATC_GAGTTGGT_S61_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_61_GTAC2_SIC_Index2_07_GCTTAGAATC_GAGTTGGT_S62_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_62_GTAC3_SIC_Index2_07_ATGACAGATC_GAGTTGGT_S63_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_63_GTAC4_SIC_Index2_07_CACCTCCATC_GAGTTGGT_S64_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.05.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_64_GTAC5_SIC_Index2_07_ATCGAGCATC_GAGTTGGT_S65_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_65_GTAC6_SIC_Index2_07_TACTCTAATC_GAGTTGGT_S66_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_66_GTAC7_SIC_Index2_07_AGACTGAATC_GAGTTGGT_S67_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_67_GTAC8_SIC_Index2_07_CTTGGAAATC_GAGTTGGT_S68_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_68_GTAC9_SIC_Index2_07_CCGATTAATC_GAGTTGGT_S69_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_69_GTAC10_SIC_Index2_07_GGCAGCGATC_GAGTTGGT_S70_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_70_GTAC11_SIC_Index2_07_CCATCATATC_GAGTTGGT_S71_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_71_GTAC12_SIC_Index2_07_TAACAAGATC_GAGTTGGT_S72_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_72_GTAC13_SIC_Index2_07_GAGGCGTATC_GAGTTGGT_S73_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_73_GTAC14_SIC_Index2_07_TTTAACTATC_GAGTTGGT_S74_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_74_GTAC15_SIC_Index2_07_GGTCCTCATC_GAGTTGGT_S75_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_75_GTAC16_SIC_Index2_07_CGGTGGCATC_GAGTTGGT_S76_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_76_GTAC17_SIC_Index2_07_ACTGTCGATC_GAGTTGGT_S77_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_77_GTAC18_SIC_Index2_07_GTATTTGATC_GAGTTGGT_S78_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_78_GTAC19_SIC_Index2_07_GAGTACGATC_GAGTTGGT_S79_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_79_GTAC20_SIC_Index2_07_ACAGATAATC_GAGTTGGT_S80_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_80_GTAC21_SIC_Index2_07_CTCAATGATC_GAGTTGGT_S81_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_81_GTAC22_SIC_Index2_07_AAATGCAATC_GAGTTGGT_S82_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_82_GTAC23_SIC_Index2_07_ACGCGGGATC_GAGTTGGT_S83_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_83_GTAC24_SIC_Index2_07_GGAGTCCATC_GAGTTGGT_S84_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_84_GTAC25_SIC_Index2_07_CGTCGCTATC_GAGTTGGT_S85_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_85_GTAC26_SIC_Index2_07_TCAACTGATC_GAGTTGGT_S86_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_86_GTAC66_SIC_Index2_07_GACACAGATC_GAGTTGGT_S88_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_87_GTAC28_SIC_Index2_07_TACATGGATC_GAGTTGGT_S89_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_88_GTAC29_SIC_Index2_07_GTTCTCAATC_GAGTTGGT_S90_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_89_GTAC30_SIC_Index2_07_CTGGTGGATC_GAGTTGGT_S91_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_90_GTAC31_SIC_Index2_07_TGCCCATATC_GAGTTGGT_S92_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_91_GTAC32_SIC_Index2_07_AAACCTTATC_GAGTTGGT_S93_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_92_GTAC33_SIC_Index2_07_ACCATACATC_GAGTTGGT_S94_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_93_GTAC34_SIC_Index2_07_AATACGCATC_GAGTTGGT_S95_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_94_GTAC35_SIC_Index2_07_CGCTACAATC_GAGTTGGT_S96_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_95_GTAC36_SIC_Index2_07_TGGCATAATC_GAGTTGGT_S97_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_96_GTAC37_SIC_Index2_07_TTTTGTCATC_GAGTTGGT_S98_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_97_GTAC38_SIC_Index2_07_ACCCACTATC_GAGTTGGT_S99_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_98_GTAC39_SIC_Index2_07_CCGGACCATC_GAGTTGGT_S100_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent/Brent_99_GTAC40_SIC_Index2_07_GTACGGCATC_GAGTTGGT_S101_R1_001.fastq.gz</t>
+    <t>libraryDate</t>
+  </si>
+  <si>
+    <t>libraryPreparer</t>
+  </si>
+  <si>
+    <t>librarySampleNumber</t>
+  </si>
+  <si>
+    <t>runNumber</t>
+  </si>
+  <si>
+    <t>laneNumber</t>
+  </si>
+  <si>
+    <t>sequencerModel</t>
+  </si>
+  <si>
+    <t>flowcellType</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>tapestationConc</t>
+  </si>
+  <si>
+    <t>volumePooled</t>
+  </si>
+  <si>
+    <t>readsObtained</t>
+  </si>
+  <si>
+    <t>fastqFileName</t>
+  </si>
+  <si>
+    <t>02.03.20</t>
+  </si>
+  <si>
+    <t>J.PLAGGENBERG</t>
+  </si>
+  <si>
+    <t>NextSeq</t>
+  </si>
+  <si>
+    <t>HighOutput</t>
+  </si>
+  <si>
+    <t>fullRNASeq</t>
+  </si>
+  <si>
+    <t>Brent/Brent_1_GTAC27_SIC_Index2_06_TGTTTGTATC_GACCTTGT_S2_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_2_GTAC28_SIC_Index2_06_TACATGGATC_GACCTTGT_S3_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_3_GTAC29_SIC_Index2_06_GTTCTCAATC_GACCTTGT_S4_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_4_GTAC30_SIC_Index2_06_CTGGTGGATC_GACCTTGT_S5_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_5_GTAC31_SIC_Index2_06_TGCCCATATC_GACCTTGT_S6_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_6_GTAC32_SIC_Index2_06_AAACCTTATC_GACCTTGT_S7_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_7_GTAC33_SIC_Index2_06_ACCATACATC_GACCTTGT_S8_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_8_GTAC34_SIC_Index2_06_AATACGCATC_GACCTTGT_S9_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_9_GTAC35_SIC_Index2_06_CGCTACAATC_GACCTTGT_S10_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_10_GTAC36_SIC_Index2_06_TGGCATAATC_GACCTTGT_S11_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_11_GTAC37_SIC_Index2_06_TTTTGTCATC_GACCTTGT_S12_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_12_GTAC38_SIC_Index2_06_ACCCACTATC_GACCTTGT_S13_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_13_GTAC39_SIC_Index2_06_CCGGACCATC_GACCTTGT_S14_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_14_GTAC40_SIC_Index2_06_GTACGGCATC_GACCTTGT_S15_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_15_GTAC41_SIC_Index2_06_TTGCCCCATC_GACCTTGT_S16_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_16_GTAC42_SIC_Index2_06_ACTCCAAATC_GACCTTGT_S17_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_17_GTAC43_SIC_Index2_06_TGTGCCAATC_GACCTTGT_S18_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_18_GTAC44_SIC_Index2_06_AACGGAGATC_GACCTTGT_S19_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_19_GTAC45_SIC_Index2_06_GATAGTTATC_GACCTTGT_S20_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_20_GTAC46_SIC_Index2_06_GGTGAATATC_GACCTTGT_S21_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_21_GTAC47_SIC_Index2_06_ATGTTCTATC_GACCTTGT_S22_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_22_GTAC48_SIC_Index2_06_GTAAAAAATC_GACCTTGT_S23_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_23_GTAC49_SIC_Index2_06_GTCTGATATC_GACCTTGT_S24_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_24_GTAC50_SIC_Index2_06_CAATATCATC_GACCTTGT_S25_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_25_GTAC51_SIC_Index2_06_CTCCCGAATC_GACCTTGT_S26_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_26_GTAC52_SIC_Index2_06_GCCGTTTATC_GACCTTGT_S27_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_27_GTAC53_SIC_Index2_06_TAGGTAAATC_GACCTTGT_S28_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_28_GTAC54_SIC_Index2_06_TCGAGATATC_GACCTTGT_S29_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_29_GTAC55_SIC_Index2_06_CATTTAGATC_GACCTTGT_S30_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_30_GTAC56_SIC_Index2_06_TCCGGGAATC_GACCTTGT_S31_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_31_GTAC57_SIC_Index2_06_CGAAAGTATC_GACCTTGT_S32_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_32_GTAC58_SIC_Index2_06_GCCTCCCATC_GACCTTGT_S33_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_33_GTAC59_SIC_Index2_06_AGTTATGATC_GACCTTGT_S34_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_34_GTAC60_SIC_Index2_06_CTGCAATATC_GACCTTGT_S35_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_35_GTAC61_SIC_Index2_06_CAAGCCGATC_GACCTTGT_S36_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_36_GTAC62_SIC_Index2_06_GGGTCAAATC_GACCTTGT_S37_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_37_GTAC63_SIC_Index2_06_GCAACGCATC_GACCTTGT_S38_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_38_GTAC64_SIC_Index2_06_TGATTACATC_GACCTTGT_S39_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_39_GTAC65_SIC_Index2_06_TGCTGGGATC_GACCTTGT_S40_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_40_GTAC66_SIC_Index2_06_GACACAGATC_GACCTTGT_S41_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>02.18.20</t>
+  </si>
+  <si>
+    <t>Brent/Brent_47_GTAC28_SIC_Index2_09_TACATGGATC_TGTGAGGT_S48_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_48_GTAC29_SIC_Index2_09_GTTCTCAATC_TGTGAGGT_S49_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_49_GTAC30_SIC_Index2_09_CTGGTGGATC_TGTGAGGT_S50_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_50_GTAC31_SIC_Index2_09_TGCCCATATC_TGTGAGGT_S51_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_51_GTAC32_SIC_Index2_09_AAACCTTATC_TGTGAGGT_S52_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_52_GTAC33_SIC_Index2_09_ACCATACATC_TGTGAGGT_S53_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_53_GTAC34_SIC_Index2_09_AATACGCATC_TGTGAGGT_S54_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_54_GTAC35_SIC_Index2_09_CGCTACAATC_TGTGAGGT_S55_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_55_GTAC36_SIC_Index2_09_TGGCATAATC_TGTGAGGT_S56_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_56_GTAC37_SIC_Index2_09_TTTTGTCATC_TGTGAGGT_S57_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_57_GTAC38_SIC_Index2_09_ACCCACTATC_TGTGAGGT_S58_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_58_GTAC39_SIC_Index2_09_CCGGACCATC_TGTGAGGT_S59_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_59_GTAC40_SIC_Index2_09_GTACGGCATC_TGTGAGGT_S60_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_60_GTAC1_SIC_Index2_07_TGAGGTTATC_GAGTTGGT_S61_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_61_GTAC2_SIC_Index2_07_GCTTAGAATC_GAGTTGGT_S62_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_62_GTAC3_SIC_Index2_07_ATGACAGATC_GAGTTGGT_S63_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_63_GTAC4_SIC_Index2_07_CACCTCCATC_GAGTTGGT_S64_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>03.05.20</t>
+  </si>
+  <si>
+    <t>Brent/Brent_64_GTAC5_SIC_Index2_07_ATCGAGCATC_GAGTTGGT_S65_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_65_GTAC6_SIC_Index2_07_TACTCTAATC_GAGTTGGT_S66_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_66_GTAC7_SIC_Index2_07_AGACTGAATC_GAGTTGGT_S67_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_67_GTAC8_SIC_Index2_07_CTTGGAAATC_GAGTTGGT_S68_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_68_GTAC9_SIC_Index2_07_CCGATTAATC_GAGTTGGT_S69_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_69_GTAC10_SIC_Index2_07_GGCAGCGATC_GAGTTGGT_S70_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_70_GTAC11_SIC_Index2_07_CCATCATATC_GAGTTGGT_S71_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_71_GTAC12_SIC_Index2_07_TAACAAGATC_GAGTTGGT_S72_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_72_GTAC13_SIC_Index2_07_GAGGCGTATC_GAGTTGGT_S73_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_73_GTAC14_SIC_Index2_07_TTTAACTATC_GAGTTGGT_S74_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_74_GTAC15_SIC_Index2_07_GGTCCTCATC_GAGTTGGT_S75_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_75_GTAC16_SIC_Index2_07_CGGTGGCATC_GAGTTGGT_S76_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_76_GTAC17_SIC_Index2_07_ACTGTCGATC_GAGTTGGT_S77_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_77_GTAC18_SIC_Index2_07_GTATTTGATC_GAGTTGGT_S78_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_78_GTAC19_SIC_Index2_07_GAGTACGATC_GAGTTGGT_S79_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_79_GTAC20_SIC_Index2_07_ACAGATAATC_GAGTTGGT_S80_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_80_GTAC21_SIC_Index2_07_CTCAATGATC_GAGTTGGT_S81_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_81_GTAC22_SIC_Index2_07_AAATGCAATC_GAGTTGGT_S82_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_82_GTAC23_SIC_Index2_07_ACGCGGGATC_GAGTTGGT_S83_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_83_GTAC24_SIC_Index2_07_GGAGTCCATC_GAGTTGGT_S84_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_84_GTAC25_SIC_Index2_07_CGTCGCTATC_GAGTTGGT_S85_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_85_GTAC26_SIC_Index2_07_TCAACTGATC_GAGTTGGT_S86_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_86_GTAC66_SIC_Index2_07_GACACAGATC_GAGTTGGT_S88_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_87_GTAC28_SIC_Index2_07_TACATGGATC_GAGTTGGT_S89_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_88_GTAC29_SIC_Index2_07_GTTCTCAATC_GAGTTGGT_S90_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_89_GTAC30_SIC_Index2_07_CTGGTGGATC_GAGTTGGT_S91_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_90_GTAC31_SIC_Index2_07_TGCCCATATC_GAGTTGGT_S92_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_91_GTAC32_SIC_Index2_07_AAACCTTATC_GAGTTGGT_S93_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_92_GTAC33_SIC_Index2_07_ACCATACATC_GAGTTGGT_S94_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_93_GTAC34_SIC_Index2_07_AATACGCATC_GAGTTGGT_S95_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_94_GTAC35_SIC_Index2_07_CGCTACAATC_GAGTTGGT_S96_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_95_GTAC36_SIC_Index2_07_TGGCATAATC_GAGTTGGT_S97_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_96_GTAC37_SIC_Index2_07_TTTTGTCATC_GAGTTGGT_S98_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_97_GTAC38_SIC_Index2_07_ACCCACTATC_GAGTTGGT_S99_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_98_GTAC39_SIC_Index2_07_CCGGACCATC_GAGTTGGT_S100_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_99_GTAC40_SIC_Index2_07_GTACGGCATC_GAGTTGGT_S101_R1_001.fastq.gz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="167" formatCode="#,##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -426,16 +421,22 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -443,109 +444,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -604,33 +542,342 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF222222"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B76" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K86" activeCellId="0" sqref="K86"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="0" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="76.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="10.61"/>
+    <col min="1" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="76.33203125" customWidth="1"/>
+    <col min="13" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -682,17 +929,17 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="7">
         <v>4286</v>
       </c>
       <c r="E2" s="3"/>
@@ -705,13 +952,13 @@
       <c r="H2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="9" t="n">
+      <c r="I2" s="9">
         <v>1.65</v>
       </c>
-      <c r="J2" s="10" t="n">
-        <v>4.7984149616928</v>
-      </c>
-      <c r="K2" s="11" t="n">
+      <c r="J2" s="10">
+        <v>4.7984149616928002</v>
+      </c>
+      <c r="K2" s="11">
         <v>55451</v>
       </c>
       <c r="L2" s="12" t="s">
@@ -732,17 +979,17 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="7">
         <v>4286</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -754,30 +1001,30 @@
       <c r="H3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="9" t="n">
+      <c r="I3" s="9">
         <v>3.89</v>
       </c>
-      <c r="J3" s="10" t="n">
-        <v>2.08710136917786</v>
-      </c>
-      <c r="K3" s="11" t="n">
+      <c r="J3" s="10">
+        <v>2.0871013691778599</v>
+      </c>
+      <c r="K3" s="11">
         <v>60066</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="6">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="7">
         <v>4286</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -789,30 +1036,30 @@
       <c r="H4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="9" t="n">
-        <v>0.262</v>
-      </c>
-      <c r="J4" s="10" t="n">
+      <c r="I4" s="9">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="J4" s="10">
         <v>5</v>
       </c>
-      <c r="K4" s="11" t="n">
+      <c r="K4" s="11">
         <v>7955</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="6">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="7">
         <v>4286</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -824,30 +1071,30 @@
       <c r="H5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="9" t="n">
+      <c r="I5" s="9">
         <v>1.08</v>
       </c>
-      <c r="J5" s="10" t="n">
+      <c r="J5" s="10">
         <v>5</v>
       </c>
-      <c r="K5" s="11" t="n">
+      <c r="K5" s="11">
         <v>5359</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="6">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="7">
         <v>4286</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -859,30 +1106,30 @@
       <c r="H6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="9" t="n">
+      <c r="I6" s="9">
         <v>6.9</v>
       </c>
-      <c r="J6" s="10" t="n">
+      <c r="J6" s="10">
         <v>1.24863798134599</v>
       </c>
-      <c r="K6" s="11" t="n">
+      <c r="K6" s="11">
         <v>39692</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="6">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="7">
         <v>4286</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -894,30 +1141,30 @@
       <c r="H7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="9" t="n">
+      <c r="I7" s="9">
         <v>1.68</v>
       </c>
-      <c r="J7" s="10" t="n">
+      <c r="J7" s="10">
         <v>1.3217309232807</v>
       </c>
-      <c r="K7" s="11" t="n">
+      <c r="K7" s="11">
         <v>59123</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="6">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="7">
         <v>4286</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -929,30 +1176,30 @@
       <c r="H8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="9" t="n">
+      <c r="I8" s="9">
         <v>3.33</v>
       </c>
-      <c r="J8" s="10" t="n">
+      <c r="J8" s="10">
         <v>1.99625771903995</v>
       </c>
-      <c r="K8" s="11" t="n">
+      <c r="K8" s="11">
         <v>47963</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="6">
         <v>8</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="7">
         <v>4286</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -964,30 +1211,30 @@
       <c r="H9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="9" t="n">
+      <c r="I9" s="9">
         <v>1.62</v>
       </c>
-      <c r="J9" s="10" t="n">
+      <c r="J9" s="10">
         <v>5</v>
       </c>
-      <c r="K9" s="11" t="n">
+      <c r="K9" s="11">
         <v>63306</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="6">
         <v>9</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="7">
         <v>4286</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -999,30 +1246,30 @@
       <c r="H10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="9" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="J10" s="10" t="n">
-        <v>3.66079674926623</v>
-      </c>
-      <c r="K10" s="11" t="n">
+      <c r="I10" s="9">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J10" s="10">
+        <v>3.6607967492662299</v>
+      </c>
+      <c r="K10" s="11">
         <v>784064</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="6">
         <v>10</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="7">
         <v>4286</v>
       </c>
       <c r="F11" s="8" t="s">
@@ -1034,30 +1281,30 @@
       <c r="H11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="9" t="n">
+      <c r="I11" s="9">
         <v>7.84</v>
       </c>
-      <c r="J11" s="10" t="n">
+      <c r="J11" s="10">
         <v>1.18347293039476</v>
       </c>
-      <c r="K11" s="11" t="n">
+      <c r="K11" s="11">
         <v>3954703</v>
       </c>
       <c r="L11" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="6">
         <v>11</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="7">
         <v>4286</v>
       </c>
       <c r="F12" s="8" t="s">
@@ -1069,30 +1316,30 @@
       <c r="H12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="9" t="n">
+      <c r="I12" s="9">
         <v>3.8</v>
       </c>
-      <c r="J12" s="10" t="n">
-        <v>2.49815060960477</v>
-      </c>
-      <c r="K12" s="11" t="n">
+      <c r="J12" s="10">
+        <v>2.4981506096047701</v>
+      </c>
+      <c r="K12" s="11">
         <v>4126169</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="6">
         <v>12</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="7">
         <v>4286</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -1104,30 +1351,30 @@
       <c r="H13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="9" t="n">
+      <c r="I13" s="9">
         <v>2.74</v>
       </c>
-      <c r="J13" s="10" t="n">
-        <v>2.43735197297303</v>
-      </c>
-      <c r="K13" s="11" t="n">
+      <c r="J13" s="10">
+        <v>2.4373519729730302</v>
+      </c>
+      <c r="K13" s="11">
         <v>3913541</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="D14" s="7" t="n">
+      <c r="C14" s="6">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7">
         <v>4286</v>
       </c>
       <c r="F14" s="8" t="s">
@@ -1139,30 +1386,30 @@
       <c r="H14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="9" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="J14" s="10" t="n">
+      <c r="I14" s="9">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="J14" s="10">
         <v>5</v>
       </c>
-      <c r="K14" s="11" t="n">
+      <c r="K14" s="11">
         <v>508058</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D15" s="7" t="n">
+      <c r="C15" s="6">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7">
         <v>4286</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -1174,30 +1421,30 @@
       <c r="H15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="9" t="n">
+      <c r="I15" s="9">
         <v>6.64</v>
       </c>
-      <c r="J15" s="10" t="n">
+      <c r="J15" s="10">
         <v>5</v>
       </c>
-      <c r="K15" s="11" t="n">
+      <c r="K15" s="11">
         <v>2276532</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D16" s="7" t="n">
+      <c r="C16" s="6">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7">
         <v>4286</v>
       </c>
       <c r="F16" s="8" t="s">
@@ -1209,30 +1456,30 @@
       <c r="H16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="9" t="n">
+      <c r="I16" s="9">
         <v>5.74</v>
       </c>
-      <c r="J16" s="10" t="n">
-        <v>2.19560932627155</v>
-      </c>
-      <c r="K16" s="11" t="n">
+      <c r="J16" s="10">
+        <v>2.1956093262715499</v>
+      </c>
+      <c r="K16" s="11">
         <v>3696561</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="6" t="n">
-        <v>16</v>
-      </c>
-      <c r="D17" s="7" t="n">
+      <c r="C17" s="6">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7">
         <v>4286</v>
       </c>
       <c r="F17" s="8" t="s">
@@ -1244,30 +1491,30 @@
       <c r="H17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="9" t="n">
+      <c r="I17" s="9">
         <v>1.03</v>
       </c>
-      <c r="J17" s="10" t="n">
-        <v>2.41034525451499</v>
-      </c>
-      <c r="K17" s="11" t="n">
+      <c r="J17" s="10">
+        <v>2.4103452545149899</v>
+      </c>
+      <c r="K17" s="11">
         <v>3436666</v>
       </c>
       <c r="L17" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="6">
         <v>17</v>
       </c>
-      <c r="D18" s="7" t="n">
+      <c r="D18" s="7">
         <v>4286</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -1279,30 +1526,30 @@
       <c r="H18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="9" t="n">
+      <c r="I18" s="9">
         <v>2.08</v>
       </c>
-      <c r="J18" s="10" t="n">
-        <v>3.96983694033851</v>
-      </c>
-      <c r="K18" s="11" t="n">
+      <c r="J18" s="10">
+        <v>3.9698369403385101</v>
+      </c>
+      <c r="K18" s="11">
         <v>916080</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="6" t="n">
+      <c r="C19" s="6">
         <v>18</v>
       </c>
-      <c r="D19" s="7" t="n">
+      <c r="D19" s="7">
         <v>4286</v>
       </c>
       <c r="F19" s="8" t="s">
@@ -1314,30 +1561,30 @@
       <c r="H19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="9" t="n">
+      <c r="I19" s="9">
         <v>1.82</v>
       </c>
-      <c r="J19" s="10" t="n">
+      <c r="J19" s="10">
         <v>5</v>
       </c>
-      <c r="K19" s="11" t="n">
+      <c r="K19" s="11">
         <v>3305658</v>
       </c>
       <c r="L19" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="6" t="n">
+      <c r="C20" s="6">
         <v>19</v>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="D20" s="7">
         <v>4286</v>
       </c>
       <c r="F20" s="8" t="s">
@@ -1349,30 +1596,30 @@
       <c r="H20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="9" t="n">
+      <c r="I20" s="9">
         <v>10.4</v>
       </c>
-      <c r="J20" s="10" t="n">
-        <v>0.775759127451482</v>
-      </c>
-      <c r="K20" s="11" t="n">
+      <c r="J20" s="10">
+        <v>0.77575912745148201</v>
+      </c>
+      <c r="K20" s="11">
         <v>3010555</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="6" t="n">
+      <c r="C21" s="6">
         <v>20</v>
       </c>
-      <c r="D21" s="7" t="n">
+      <c r="D21" s="7">
         <v>4286</v>
       </c>
       <c r="F21" s="8" t="s">
@@ -1384,30 +1631,30 @@
       <c r="H21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="9" t="n">
+      <c r="I21" s="9">
         <v>12.2</v>
       </c>
-      <c r="J21" s="10" t="n">
-        <v>0.884548096909322</v>
-      </c>
-      <c r="K21" s="11" t="n">
+      <c r="J21" s="10">
+        <v>0.88454809690932201</v>
+      </c>
+      <c r="K21" s="11">
         <v>3912197</v>
       </c>
       <c r="L21" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="6" t="n">
+      <c r="C22" s="6">
         <v>21</v>
       </c>
-      <c r="D22" s="7" t="n">
+      <c r="D22" s="7">
         <v>4286</v>
       </c>
       <c r="F22" s="8" t="s">
@@ -1419,30 +1666,30 @@
       <c r="H22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="9" t="n">
+      <c r="I22" s="9">
         <v>4.79</v>
       </c>
-      <c r="J22" s="10" t="n">
+      <c r="J22" s="10">
         <v>2.04322283158842</v>
       </c>
-      <c r="K22" s="11" t="n">
+      <c r="K22" s="11">
         <v>3751946</v>
       </c>
       <c r="L22" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="6" t="n">
+      <c r="C23" s="6">
         <v>22</v>
       </c>
-      <c r="D23" s="7" t="n">
+      <c r="D23" s="7">
         <v>4286</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -1454,30 +1701,30 @@
       <c r="H23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="9" t="n">
+      <c r="I23" s="9">
         <v>2.76</v>
       </c>
-      <c r="J23" s="10" t="n">
-        <v>2.32144018127025</v>
-      </c>
-      <c r="K23" s="11" t="n">
+      <c r="J23" s="10">
+        <v>2.3214401812702499</v>
+      </c>
+      <c r="K23" s="11">
         <v>3752445</v>
       </c>
       <c r="L23" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="6" t="n">
+      <c r="C24" s="6">
         <v>23</v>
       </c>
-      <c r="D24" s="7" t="n">
+      <c r="D24" s="7">
         <v>4286</v>
       </c>
       <c r="F24" s="8" t="s">
@@ -1489,30 +1736,30 @@
       <c r="H24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="9" t="n">
+      <c r="I24" s="9">
         <v>3.83</v>
       </c>
-      <c r="J24" s="10" t="n">
-        <v>2.20089990828023</v>
-      </c>
-      <c r="K24" s="11" t="n">
+      <c r="J24" s="10">
+        <v>2.2008999082802299</v>
+      </c>
+      <c r="K24" s="11">
         <v>3303951</v>
       </c>
       <c r="L24" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="C25" s="6">
         <v>24</v>
       </c>
-      <c r="D25" s="7" t="n">
+      <c r="D25" s="7">
         <v>4286</v>
       </c>
       <c r="F25" s="8" t="s">
@@ -1524,30 +1771,30 @@
       <c r="H25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="9" t="n">
+      <c r="I25" s="9">
         <v>1.54</v>
       </c>
-      <c r="J25" s="10" t="n">
-        <v>4.54047547429727</v>
-      </c>
-      <c r="K25" s="11" t="n">
+      <c r="J25" s="10">
+        <v>4.5404754742972697</v>
+      </c>
+      <c r="K25" s="11">
         <v>3597754</v>
       </c>
       <c r="L25" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="6" t="n">
+      <c r="C26" s="6">
         <v>25</v>
       </c>
-      <c r="D26" s="7" t="n">
+      <c r="D26" s="7">
         <v>4286</v>
       </c>
       <c r="F26" s="8" t="s">
@@ -1559,30 +1806,30 @@
       <c r="H26" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="9" t="n">
+      <c r="I26" s="9">
         <v>2.81</v>
       </c>
-      <c r="J26" s="10" t="n">
-        <v>2.68547693112633</v>
-      </c>
-      <c r="K26" s="11" t="n">
+      <c r="J26" s="10">
+        <v>2.6854769311263298</v>
+      </c>
+      <c r="K26" s="11">
         <v>3628270</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>26</v>
       </c>
-      <c r="D27" s="7" t="n">
+      <c r="D27" s="7">
         <v>4286</v>
       </c>
       <c r="F27" s="8" t="s">
@@ -1594,30 +1841,30 @@
       <c r="H27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="9" t="n">
+      <c r="I27" s="9">
         <v>10.9</v>
       </c>
-      <c r="J27" s="10" t="n">
-        <v>0.919446283545198</v>
-      </c>
-      <c r="K27" s="13" t="n">
+      <c r="J27" s="10">
+        <v>0.91944628354519797</v>
+      </c>
+      <c r="K27" s="13">
         <v>3911628</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>27</v>
       </c>
-      <c r="D28" s="7" t="n">
+      <c r="D28" s="7">
         <v>4286</v>
       </c>
       <c r="F28" s="8" t="s">
@@ -1629,30 +1876,30 @@
       <c r="H28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="9" t="n">
+      <c r="I28" s="9">
         <v>7.93</v>
       </c>
-      <c r="J28" s="10" t="n">
-        <v>0.984695296721899</v>
-      </c>
-      <c r="K28" s="13" t="n">
+      <c r="J28" s="10">
+        <v>0.98469529672189904</v>
+      </c>
+      <c r="K28" s="13">
         <v>3168891</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="6" t="n">
+      <c r="C29" s="6">
         <v>28</v>
       </c>
-      <c r="D29" s="7" t="n">
+      <c r="D29" s="7">
         <v>4286</v>
       </c>
       <c r="F29" s="8" t="s">
@@ -1664,30 +1911,30 @@
       <c r="H29" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="9" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="J29" s="10" t="n">
+      <c r="I29" s="9">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="J29" s="10">
         <v>5</v>
       </c>
-      <c r="K29" s="11" t="n">
+      <c r="K29" s="11">
         <v>866086</v>
       </c>
       <c r="L29" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="6" t="n">
+      <c r="C30" s="6">
         <v>29</v>
       </c>
-      <c r="D30" s="7" t="n">
+      <c r="D30" s="7">
         <v>4286</v>
       </c>
       <c r="F30" s="8" t="s">
@@ -1699,30 +1946,30 @@
       <c r="H30" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="9" t="n">
+      <c r="I30" s="9">
         <v>3.45</v>
       </c>
-      <c r="J30" s="10" t="n">
-        <v>3.19059607018294</v>
-      </c>
-      <c r="K30" s="11" t="n">
+      <c r="J30" s="10">
+        <v>3.1905960701829401</v>
+      </c>
+      <c r="K30" s="11">
         <v>4019814</v>
       </c>
       <c r="L30" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="6" t="n">
+      <c r="C31" s="6">
         <v>30</v>
       </c>
-      <c r="D31" s="7" t="n">
+      <c r="D31" s="7">
         <v>4286</v>
       </c>
       <c r="F31" s="8" t="s">
@@ -1734,30 +1981,30 @@
       <c r="H31" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="9" t="n">
-        <v>0.665</v>
-      </c>
-      <c r="J31" s="10" t="n">
+      <c r="I31" s="9">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="J31" s="10">
         <v>5</v>
       </c>
-      <c r="K31" s="11" t="n">
+      <c r="K31" s="11">
         <v>211104</v>
       </c>
       <c r="L31" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="6" t="n">
+      <c r="C32" s="6">
         <v>31</v>
       </c>
-      <c r="D32" s="7" t="n">
+      <c r="D32" s="7">
         <v>4286</v>
       </c>
       <c r="F32" s="8" t="s">
@@ -1769,30 +2016,30 @@
       <c r="H32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="9" t="n">
-        <v>0.699</v>
-      </c>
-      <c r="J32" s="10" t="n">
+      <c r="I32" s="9">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="J32" s="10">
         <v>5</v>
       </c>
-      <c r="K32" s="11" t="n">
+      <c r="K32" s="11">
         <v>782240</v>
       </c>
       <c r="L32" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="6" t="n">
+      <c r="C33" s="6">
         <v>32</v>
       </c>
-      <c r="D33" s="7" t="n">
+      <c r="D33" s="7">
         <v>4286</v>
       </c>
       <c r="F33" s="8" t="s">
@@ -1804,30 +2051,30 @@
       <c r="H33" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="9" t="n">
-        <v>0.716</v>
-      </c>
-      <c r="J33" s="10" t="n">
+      <c r="I33" s="9">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="J33" s="10">
         <v>5</v>
       </c>
-      <c r="K33" s="11" t="n">
+      <c r="K33" s="11">
         <v>710362</v>
       </c>
       <c r="L33" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="6" t="n">
+      <c r="C34" s="6">
         <v>33</v>
       </c>
-      <c r="D34" s="7" t="n">
+      <c r="D34" s="7">
         <v>4286</v>
       </c>
       <c r="F34" s="8" t="s">
@@ -1839,30 +2086,30 @@
       <c r="H34" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="9" t="n">
+      <c r="I34" s="9">
         <v>1.85</v>
       </c>
-      <c r="J34" s="10" t="n">
+      <c r="J34" s="10">
         <v>5</v>
       </c>
-      <c r="K34" s="11" t="n">
+      <c r="K34" s="11">
         <v>3309231</v>
       </c>
       <c r="L34" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="6" t="n">
+      <c r="C35" s="6">
         <v>34</v>
       </c>
-      <c r="D35" s="7" t="n">
+      <c r="D35" s="7">
         <v>4286</v>
       </c>
       <c r="F35" s="8" t="s">
@@ -1874,30 +2121,30 @@
       <c r="H35" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="9" t="n">
+      <c r="I35" s="9">
         <v>1.52</v>
       </c>
-      <c r="J35" s="10" t="n">
+      <c r="J35" s="10">
         <v>5</v>
       </c>
-      <c r="K35" s="11" t="n">
+      <c r="K35" s="11">
         <v>2279559</v>
       </c>
       <c r="L35" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="6" t="n">
+      <c r="C36" s="6">
         <v>35</v>
       </c>
-      <c r="D36" s="7" t="n">
+      <c r="D36" s="7">
         <v>4286</v>
       </c>
       <c r="F36" s="8" t="s">
@@ -1909,30 +2156,30 @@
       <c r="H36" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="9" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="J36" s="10" t="n">
+      <c r="I36" s="9">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="J36" s="10">
         <v>5</v>
       </c>
-      <c r="K36" s="11" t="n">
+      <c r="K36" s="11">
         <v>1404638</v>
       </c>
       <c r="L36" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="6" t="n">
+      <c r="C37" s="6">
         <v>36</v>
       </c>
-      <c r="D37" s="7" t="n">
+      <c r="D37" s="7">
         <v>4286</v>
       </c>
       <c r="F37" s="8" t="s">
@@ -1944,30 +2191,30 @@
       <c r="H37" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="9" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="J37" s="10" t="n">
-        <v>2.46767342891953</v>
-      </c>
-      <c r="K37" s="11" t="n">
+      <c r="I37" s="9">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="J37" s="10">
+        <v>2.4676734289195301</v>
+      </c>
+      <c r="K37" s="11">
         <v>4012248</v>
       </c>
       <c r="L37" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="6" t="n">
+      <c r="C38" s="6">
         <v>37</v>
       </c>
-      <c r="D38" s="7" t="n">
+      <c r="D38" s="7">
         <v>4286</v>
       </c>
       <c r="F38" s="8" t="s">
@@ -1979,30 +2226,30 @@
       <c r="H38" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="9" t="n">
+      <c r="I38" s="9">
         <v>2.4</v>
       </c>
-      <c r="J38" s="10" t="n">
-        <v>3.71681165657483</v>
-      </c>
-      <c r="K38" s="11" t="n">
+      <c r="J38" s="10">
+        <v>3.7168116565748299</v>
+      </c>
+      <c r="K38" s="11">
         <v>3714840</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="6" t="n">
+      <c r="C39" s="6">
         <v>38</v>
       </c>
-      <c r="D39" s="7" t="n">
+      <c r="D39" s="7">
         <v>4286</v>
       </c>
       <c r="F39" s="8" t="s">
@@ -2014,30 +2261,30 @@
       <c r="H39" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="9" t="n">
+      <c r="I39" s="9">
         <v>4.2</v>
       </c>
-      <c r="J39" s="10" t="n">
+      <c r="J39" s="10">
         <v>1.4272268286901</v>
       </c>
-      <c r="K39" s="11" t="n">
+      <c r="K39" s="11">
         <v>3185789</v>
       </c>
       <c r="L39" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="6" t="n">
+      <c r="C40" s="6">
         <v>39</v>
       </c>
-      <c r="D40" s="7" t="n">
+      <c r="D40" s="7">
         <v>4286</v>
       </c>
       <c r="F40" s="8" t="s">
@@ -2049,30 +2296,30 @@
       <c r="H40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I40" s="9" t="n">
+      <c r="I40" s="9">
         <v>1.19</v>
       </c>
-      <c r="J40" s="10" t="n">
+      <c r="J40" s="10">
         <v>5</v>
       </c>
-      <c r="K40" s="11" t="n">
+      <c r="K40" s="11">
         <v>3132666</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="6" t="n">
+      <c r="C41" s="6">
         <v>40</v>
       </c>
-      <c r="D41" s="7" t="n">
+      <c r="D41" s="7">
         <v>4286</v>
       </c>
       <c r="F41" s="8" t="s">
@@ -2084,30 +2331,30 @@
       <c r="H41" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="9" t="n">
+      <c r="I41" s="9">
         <v>1.39</v>
       </c>
-      <c r="J41" s="10" t="n">
-        <v>4.99388080454535</v>
-      </c>
-      <c r="K41" s="11" t="n">
+      <c r="J41" s="10">
+        <v>4.9938808045453502</v>
+      </c>
+      <c r="K41" s="11">
         <v>3650966</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="6" t="n">
+      <c r="C42" s="6">
         <v>1</v>
       </c>
-      <c r="D42" s="7" t="n">
+      <c r="D42" s="7">
         <v>4286</v>
       </c>
       <c r="F42" s="8" t="s">
@@ -2119,2071 +2366,2065 @@
       <c r="H42" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I42" s="9" t="n">
+      <c r="I42" s="9">
         <v>5.64</v>
       </c>
-      <c r="J42" s="10" t="n">
-        <v>1.50004428271992</v>
-      </c>
-      <c r="K42" s="11" t="n">
+      <c r="J42" s="10">
+        <v>1.5000442827199201</v>
+      </c>
+      <c r="K42" s="11">
         <v>3341</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="3" t="n">
+      <c r="C43" s="3">
         <v>21</v>
       </c>
-      <c r="D43" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F43" s="0" t="s">
+      <c r="D43" s="7">
+        <v>4286</v>
+      </c>
+      <c r="F43" t="s">
         <v>14</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="14" t="n">
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="14">
         <v>7.95</v>
       </c>
-      <c r="J43" s="1" t="n">
+      <c r="J43" s="1">
         <v>0.940910811430966</v>
       </c>
-      <c r="K43" s="13" t="n">
+      <c r="K43" s="13">
         <v>3833001</v>
       </c>
       <c r="L43" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="3" t="n">
+      <c r="C44" s="3">
         <v>22</v>
       </c>
-      <c r="D44" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F44" s="0" t="s">
+      <c r="D44" s="7">
+        <v>4286</v>
+      </c>
+      <c r="F44" t="s">
         <v>14</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="14" t="n">
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="14">
         <v>11.4</v>
       </c>
-      <c r="J44" s="1" t="n">
-        <v>0.70447921959666</v>
-      </c>
-      <c r="K44" s="13" t="n">
+      <c r="J44" s="1">
+        <v>0.70447921959666004</v>
+      </c>
+      <c r="K44" s="13">
         <v>2979687</v>
       </c>
       <c r="L44" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="15" t="n">
+      <c r="C45" s="15">
         <v>23</v>
       </c>
-      <c r="D45" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F45" s="0" t="s">
+      <c r="D45" s="7">
+        <v>4286</v>
+      </c>
+      <c r="F45" t="s">
         <v>14</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="14" t="n">
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="14">
         <v>10.4</v>
       </c>
-      <c r="J45" s="1" t="n">
-        <v>0.93194502542261</v>
-      </c>
-      <c r="K45" s="13" t="n">
+      <c r="J45" s="1">
+        <v>0.93194502542261004</v>
+      </c>
+      <c r="K45" s="13">
         <v>3775249</v>
       </c>
       <c r="L45" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="3" t="n">
+      <c r="C46" s="3">
         <v>24</v>
       </c>
-      <c r="D46" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F46" s="0" t="s">
+      <c r="D46" s="7">
+        <v>4286</v>
+      </c>
+      <c r="F46" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J46" s="1" t="n">
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J46" s="1">
         <v>3.7</v>
       </c>
-      <c r="K46" s="13" t="n">
+      <c r="K46" s="13">
         <v>2618801</v>
       </c>
       <c r="L46" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="3" t="n">
+      <c r="C47" s="3">
         <v>25</v>
       </c>
-      <c r="D47" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F47" s="0" t="s">
+      <c r="D47" s="7">
+        <v>4286</v>
+      </c>
+      <c r="F47" t="s">
         <v>14</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="14" t="n">
+      <c r="H47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="14">
         <v>5.89</v>
       </c>
-      <c r="J47" s="1" t="n">
+      <c r="J47" s="1">
         <v>1.55606533337618</v>
       </c>
-      <c r="K47" s="13" t="n">
+      <c r="K47" s="13">
         <v>4016231</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="3" t="n">
+      <c r="C48" s="3">
         <v>28</v>
       </c>
-      <c r="D48" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F48" s="0" t="s">
+      <c r="D48" s="7">
+        <v>4286</v>
+      </c>
+      <c r="F48" t="s">
         <v>14</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="14" t="n">
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="14">
         <v>11.5</v>
       </c>
-      <c r="J48" s="1" t="n">
-        <v>1.20357038650539</v>
-      </c>
-      <c r="K48" s="13" t="n">
+      <c r="J48" s="1">
+        <v>1.2035703865053899</v>
+      </c>
+      <c r="K48" s="13">
         <v>5116059</v>
       </c>
       <c r="L48" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="15" t="n">
+      <c r="C49" s="15">
         <v>29</v>
       </c>
-      <c r="D49" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F49" s="0" t="s">
+      <c r="D49" s="7">
+        <v>4286</v>
+      </c>
+      <c r="F49" t="s">
         <v>14</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="14" t="n">
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="14">
         <v>6.58</v>
       </c>
-      <c r="J49" s="1" t="n">
+      <c r="J49" s="1">
         <v>1.26992853566283</v>
       </c>
-      <c r="K49" s="13" t="n">
+      <c r="K49" s="13">
         <v>3810168</v>
       </c>
       <c r="L49" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="3" t="n">
+      <c r="C50" s="3">
         <v>30</v>
       </c>
-      <c r="D50" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F50" s="0" t="s">
+      <c r="D50" s="7">
+        <v>4286</v>
+      </c>
+      <c r="F50" t="s">
         <v>14</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="14" t="n">
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="14">
         <v>12.6</v>
       </c>
-      <c r="J50" s="1" t="n">
-        <v>0.90926441638258</v>
-      </c>
-      <c r="K50" s="13" t="n">
+      <c r="J50" s="1">
+        <v>0.90926441638258004</v>
+      </c>
+      <c r="K50" s="13">
         <v>3705711</v>
       </c>
       <c r="L50" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="3" t="n">
+      <c r="C51" s="3">
         <v>31</v>
       </c>
-      <c r="D51" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F51" s="0" t="s">
+      <c r="D51" s="7">
+        <v>4286</v>
+      </c>
+      <c r="F51" t="s">
         <v>14</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H51" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="14" t="n">
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="14">
         <v>13.7</v>
       </c>
-      <c r="J51" s="1" t="n">
-        <v>1.42193867451211</v>
-      </c>
-      <c r="K51" s="13" t="n">
+      <c r="J51" s="1">
+        <v>1.4219386745121101</v>
+      </c>
+      <c r="K51" s="13">
         <v>5217361</v>
       </c>
       <c r="L51" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="15" t="n">
+      <c r="C52" s="15">
         <v>32</v>
       </c>
-      <c r="D52" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F52" s="0" t="s">
+      <c r="D52" s="7">
+        <v>4286</v>
+      </c>
+      <c r="F52" t="s">
         <v>14</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H52" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="14" t="n">
+      <c r="H52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="14">
         <v>5.51</v>
       </c>
-      <c r="J52" s="1" t="n">
+      <c r="J52" s="1">
         <v>1.51055075757572</v>
       </c>
-      <c r="K52" s="13" t="n">
+      <c r="K52" s="13">
         <v>3436627</v>
       </c>
       <c r="L52" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="3" t="n">
+      <c r="C53" s="3">
         <v>33</v>
       </c>
-      <c r="D53" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F53" s="0" t="s">
+      <c r="D53" s="7">
+        <v>4286</v>
+      </c>
+      <c r="F53" t="s">
         <v>14</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" s="14" t="n">
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="14">
         <v>4.13</v>
       </c>
-      <c r="J53" s="1" t="n">
-        <v>1.92965336064587</v>
-      </c>
-      <c r="K53" s="13" t="n">
+      <c r="J53" s="1">
+        <v>1.9296533606458699</v>
+      </c>
+      <c r="K53" s="13">
         <v>3600852</v>
       </c>
       <c r="L53" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="3" t="n">
+      <c r="C54" s="3">
         <v>34</v>
       </c>
-      <c r="D54" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F54" s="0" t="s">
+      <c r="D54" s="7">
+        <v>4286</v>
+      </c>
+      <c r="F54" t="s">
         <v>14</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H54" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I54" s="14" t="n">
+      <c r="H54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="14">
         <v>0.499</v>
       </c>
-      <c r="J54" s="1" t="n">
+      <c r="J54" s="1">
         <v>5</v>
       </c>
-      <c r="K54" s="13" t="n">
+      <c r="K54" s="13">
         <v>405872</v>
       </c>
       <c r="L54" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="15" t="n">
+      <c r="C55" s="15">
         <v>35</v>
       </c>
-      <c r="D55" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F55" s="0" t="s">
+      <c r="D55" s="7">
+        <v>4286</v>
+      </c>
+      <c r="F55" t="s">
         <v>14</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I55" s="14" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="J55" s="1" t="n">
-        <v>0.780949729885769</v>
-      </c>
-      <c r="K55" s="13" t="n">
+      <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="14">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.78094972988576905</v>
+      </c>
+      <c r="K55" s="13">
         <v>3996125</v>
       </c>
       <c r="L55" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="3" t="n">
+      <c r="C56" s="3">
         <v>36</v>
       </c>
-      <c r="D56" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F56" s="0" t="s">
+      <c r="D56" s="7">
+        <v>4286</v>
+      </c>
+      <c r="F56" t="s">
         <v>14</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H56" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I56" s="14" t="n">
+      <c r="H56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="14">
         <v>7.85</v>
       </c>
-      <c r="J56" s="1" t="n">
-        <v>1.10210084290367</v>
-      </c>
-      <c r="K56" s="13" t="n">
+      <c r="J56" s="1">
+        <v>1.1021008429036701</v>
+      </c>
+      <c r="K56" s="13">
         <v>3411619</v>
       </c>
       <c r="L56" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="3" t="n">
+      <c r="C57" s="3">
         <v>37</v>
       </c>
-      <c r="D57" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F57" s="0" t="s">
+      <c r="D57" s="7">
+        <v>4286</v>
+      </c>
+      <c r="F57" t="s">
         <v>14</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H57" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" s="14" t="n">
+      <c r="H57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="14">
         <v>1.7</v>
       </c>
-      <c r="J57" s="1" t="n">
-        <v>4.3685643761613</v>
-      </c>
-      <c r="K57" s="13" t="n">
+      <c r="J57" s="1">
+        <v>4.3685643761612996</v>
+      </c>
+      <c r="K57" s="13">
         <v>3249254</v>
       </c>
       <c r="L57" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="15" t="n">
+      <c r="C58" s="15">
         <v>38</v>
       </c>
-      <c r="D58" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F58" s="0" t="s">
+      <c r="D58" s="7">
+        <v>4286</v>
+      </c>
+      <c r="F58" t="s">
         <v>14</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" s="14" t="n">
+      <c r="H58" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="14">
         <v>4.32</v>
       </c>
-      <c r="J58" s="1" t="n">
+      <c r="J58" s="1">
         <v>1.54496329938281</v>
       </c>
-      <c r="K58" s="13" t="n">
+      <c r="K58" s="13">
         <v>2678609</v>
       </c>
       <c r="L58" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="3" t="n">
+      <c r="C59" s="3">
         <v>39</v>
       </c>
-      <c r="D59" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F59" s="0" t="s">
+      <c r="D59" s="7">
+        <v>4286</v>
+      </c>
+      <c r="F59" t="s">
         <v>14</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H59" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="14" t="n">
+      <c r="H59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="14">
         <v>19.7</v>
       </c>
-      <c r="J59" s="1" t="n">
+      <c r="J59" s="1">
         <v>5</v>
       </c>
-      <c r="K59" s="13" t="n">
+      <c r="K59" s="13">
         <v>2459097</v>
       </c>
       <c r="L59" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="3" t="n">
+      <c r="C60" s="3">
         <v>40</v>
       </c>
-      <c r="D60" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F60" s="0" t="s">
+      <c r="D60" s="7">
+        <v>4286</v>
+      </c>
+      <c r="F60" t="s">
         <v>14</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H60" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" s="14" t="n">
+      <c r="H60" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="14">
         <v>4.32</v>
       </c>
-      <c r="J60" s="1" t="n">
+      <c r="J60" s="1">
         <v>5</v>
       </c>
-      <c r="K60" s="13" t="n">
+      <c r="K60" s="13">
         <v>727852</v>
       </c>
       <c r="L60" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="15" t="n">
+      <c r="C61" s="15">
         <v>1</v>
       </c>
-      <c r="D61" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F61" s="0" t="s">
+      <c r="D61" s="7">
+        <v>4286</v>
+      </c>
+      <c r="F61" t="s">
         <v>14</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" s="14" t="n">
+      <c r="H61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="14">
         <v>7.8</v>
       </c>
-      <c r="J61" s="1" t="n">
+      <c r="J61" s="1">
         <v>1.09272075722988</v>
       </c>
-      <c r="K61" s="13" t="n">
+      <c r="K61" s="13">
         <v>6236148</v>
       </c>
       <c r="L61" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>75</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="0" t="n">
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62">
         <v>2</v>
       </c>
-      <c r="D62" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F62" s="0" t="s">
+      <c r="D62">
+        <v>4286</v>
+      </c>
+      <c r="F62" t="s">
         <v>14</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H62" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I62" s="14" t="n">
+      <c r="H62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="14">
         <v>1.32</v>
       </c>
-      <c r="J62" s="1" t="n">
+      <c r="J62" s="1">
         <v>1.43162946383106</v>
       </c>
-      <c r="K62" s="0" t="n">
+      <c r="K62">
         <v>157919</v>
       </c>
-      <c r="L62" s="0" t="s">
+      <c r="L62" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>75</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" s="0" t="n">
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63">
         <v>3</v>
       </c>
-      <c r="D63" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F63" s="0" t="s">
+      <c r="D63">
+        <v>4286</v>
+      </c>
+      <c r="F63" t="s">
         <v>14</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H63" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I63" s="14" t="n">
+      <c r="H63" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="14">
         <v>5.72</v>
       </c>
-      <c r="J63" s="1" t="n">
-        <v>0.84376531851507</v>
-      </c>
-      <c r="K63" s="0" t="n">
+      <c r="J63" s="1">
+        <v>0.84376531851506997</v>
+      </c>
+      <c r="K63">
         <v>3029601</v>
       </c>
-      <c r="L63" s="0" t="s">
+      <c r="L63" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="0" t="n">
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64">
         <v>4</v>
       </c>
-      <c r="D64" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F64" s="0" t="s">
+      <c r="D64">
+        <v>4286</v>
+      </c>
+      <c r="F64" t="s">
         <v>14</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H64" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I64" s="14" t="n">
+      <c r="H64" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="14">
         <v>3.13</v>
       </c>
-      <c r="J64" s="1" t="n">
-        <v>0.895012369504732</v>
-      </c>
-      <c r="K64" s="0" t="n">
+      <c r="J64" s="1">
+        <v>0.89501236950473195</v>
+      </c>
+      <c r="K64">
         <v>791661</v>
       </c>
-      <c r="L64" s="0" t="s">
+      <c r="L64" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" s="0" t="n">
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65">
         <v>5</v>
       </c>
-      <c r="D65" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F65" s="0" t="s">
+      <c r="D65">
+        <v>4286</v>
+      </c>
+      <c r="F65" t="s">
         <v>14</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H65" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I65" s="0" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="J65" s="1" t="n">
+      <c r="H65" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J65" s="1">
         <v>1.44836148619642</v>
       </c>
-      <c r="K65" s="0" t="n">
+      <c r="K65">
         <v>35477</v>
       </c>
-      <c r="L65" s="0" t="s">
+      <c r="L65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C66" s="0" t="n">
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66">
         <v>6</v>
       </c>
-      <c r="D66" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F66" s="0" t="s">
+      <c r="D66">
+        <v>4286</v>
+      </c>
+      <c r="F66" t="s">
         <v>14</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I66" s="0" t="n">
+      <c r="H66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66">
         <v>6.86</v>
       </c>
-      <c r="J66" s="1" t="n">
-        <v>0.886934594102343</v>
-      </c>
-      <c r="K66" s="0" t="n">
+      <c r="J66" s="1">
+        <v>0.88693459410234299</v>
+      </c>
+      <c r="K66">
         <v>882097</v>
       </c>
-      <c r="L66" s="0" t="s">
+      <c r="L66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" s="0" t="n">
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67">
         <v>7</v>
       </c>
-      <c r="D67" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F67" s="0" t="s">
+      <c r="D67">
+        <v>4286</v>
+      </c>
+      <c r="F67" t="s">
         <v>14</v>
       </c>
       <c r="G67" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H67" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I67" s="0" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J67" s="1" t="n">
+      <c r="H67" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J67" s="1">
         <v>0.440995561987861</v>
       </c>
-      <c r="K67" s="0" t="n">
+      <c r="K67">
         <v>916533</v>
       </c>
-      <c r="L67" s="0" t="s">
+      <c r="L67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C68" s="0" t="n">
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68">
         <v>8</v>
       </c>
-      <c r="D68" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F68" s="0" t="s">
+      <c r="D68">
+        <v>4286</v>
+      </c>
+      <c r="F68" t="s">
         <v>14</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H68" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I68" s="0" t="n">
+      <c r="H68" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68">
         <v>5.46</v>
       </c>
-      <c r="J68" s="1" t="n">
-        <v>0.812227671380449</v>
-      </c>
-      <c r="K68" s="0" t="n">
+      <c r="J68" s="1">
+        <v>0.81222767138044905</v>
+      </c>
+      <c r="K68">
         <v>3255901</v>
       </c>
-      <c r="L68" s="0" t="s">
+      <c r="L68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69" s="0" t="n">
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69">
         <v>9</v>
       </c>
-      <c r="D69" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F69" s="0" t="s">
+      <c r="D69">
+        <v>4286</v>
+      </c>
+      <c r="F69" t="s">
         <v>14</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H69" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I69" s="0" t="n">
-        <v>8.47</v>
-      </c>
-      <c r="J69" s="1" t="n">
-        <v>0.885179043700936</v>
-      </c>
-      <c r="K69" s="0" t="n">
+      <c r="H69" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0.88517904370093603</v>
+      </c>
+      <c r="K69">
         <v>4792414</v>
       </c>
-      <c r="L69" s="0" t="s">
+      <c r="L69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="0" t="n">
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70">
         <v>10</v>
       </c>
-      <c r="D70" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F70" s="0" t="s">
+      <c r="D70">
+        <v>4286</v>
+      </c>
+      <c r="F70" t="s">
         <v>14</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H70" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I70" s="0" t="n">
+      <c r="H70" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70">
         <v>6.99</v>
       </c>
-      <c r="J70" s="1" t="n">
+      <c r="J70" s="1">
         <v>1.1265503801765</v>
       </c>
-      <c r="K70" s="0" t="n">
+      <c r="K70">
         <v>2947123</v>
       </c>
-      <c r="L70" s="0" t="s">
+      <c r="L70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" s="0" t="n">
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71">
         <v>11</v>
       </c>
-      <c r="D71" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F71" s="0" t="s">
+      <c r="D71">
+        <v>4286</v>
+      </c>
+      <c r="F71" t="s">
         <v>14</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H71" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I71" s="0" t="n">
+      <c r="H71" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71">
         <v>4.13</v>
       </c>
-      <c r="J71" s="1" t="n">
+      <c r="J71" s="1">
         <v>0.807361105793162</v>
       </c>
-      <c r="K71" s="0" t="n">
+      <c r="K71">
         <v>5051998</v>
       </c>
-      <c r="L71" s="0" t="s">
+      <c r="L71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C72" s="0" t="n">
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72">
         <v>12</v>
       </c>
-      <c r="D72" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F72" s="0" t="s">
+      <c r="D72">
+        <v>4286</v>
+      </c>
+      <c r="F72" t="s">
         <v>14</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H72" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I72" s="0" t="n">
+      <c r="H72" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72">
         <v>2.41</v>
       </c>
-      <c r="J72" s="1" t="n">
-        <v>0.710998651230752</v>
-      </c>
-      <c r="K72" s="0" t="n">
+      <c r="J72" s="1">
+        <v>0.71099865123075201</v>
+      </c>
+      <c r="K72">
         <v>3251128</v>
       </c>
-      <c r="L72" s="0" t="s">
+      <c r="L72" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="D73" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F73" s="0" t="s">
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73">
+        <v>13</v>
+      </c>
+      <c r="D73">
+        <v>4286</v>
+      </c>
+      <c r="F73" t="s">
         <v>14</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H73" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I73" s="0" t="n">
+      <c r="H73" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73">
         <v>3.51</v>
       </c>
-      <c r="J73" s="1" t="n">
-        <v>0.835268967420476</v>
-      </c>
-      <c r="K73" s="0" t="n">
+      <c r="J73" s="1">
+        <v>0.83526896742047596</v>
+      </c>
+      <c r="K73">
         <v>7543932</v>
       </c>
-      <c r="L73" s="0" t="s">
+      <c r="L73" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="D74" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F74" s="0" t="s">
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <v>14</v>
+      </c>
+      <c r="D74">
+        <v>4286</v>
+      </c>
+      <c r="F74" t="s">
         <v>14</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H74" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I74" s="0" t="n">
+      <c r="H74" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74">
         <v>8.51</v>
       </c>
-      <c r="J74" s="1" t="n">
-        <v>0.949748890840709</v>
-      </c>
-      <c r="K74" s="0" t="n">
+      <c r="J74" s="1">
+        <v>0.94974889084070901</v>
+      </c>
+      <c r="K74">
         <v>16039279</v>
       </c>
-      <c r="L74" s="0" t="s">
+      <c r="L74" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="D75" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F75" s="0" t="s">
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75">
+        <v>15</v>
+      </c>
+      <c r="D75">
+        <v>4286</v>
+      </c>
+      <c r="F75" t="s">
         <v>14</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H75" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I75" s="0" t="n">
+      <c r="H75" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75">
         <v>3.32</v>
       </c>
-      <c r="J75" s="1" t="n">
+      <c r="J75" s="1">
         <v>0.923126259114328</v>
       </c>
-      <c r="K75" s="0" t="n">
+      <c r="K75">
         <v>3195408</v>
       </c>
-      <c r="L75" s="0" t="s">
+      <c r="L75" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="D76" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F76" s="0" t="s">
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76">
+        <v>16</v>
+      </c>
+      <c r="D76">
+        <v>4286</v>
+      </c>
+      <c r="F76" t="s">
         <v>14</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H76" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I76" s="0" t="n">
-        <v>0.977</v>
-      </c>
-      <c r="J76" s="1" t="n">
+      <c r="H76" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="J76" s="1">
         <v>1.89844601103818</v>
       </c>
-      <c r="K76" s="0" t="n">
+      <c r="K76">
         <v>1331642</v>
       </c>
-      <c r="L76" s="0" t="s">
+      <c r="L76" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="0" t="n">
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77">
         <v>17</v>
       </c>
-      <c r="D77" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F77" s="0" t="s">
+      <c r="D77">
+        <v>4286</v>
+      </c>
+      <c r="F77" t="s">
         <v>14</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H77" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I77" s="0" t="n">
+      <c r="H77" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77">
         <v>2.44</v>
       </c>
-      <c r="J77" s="1" t="n">
-        <v>0.731840941642506</v>
-      </c>
-      <c r="K77" s="0" t="n">
+      <c r="J77" s="1">
+        <v>0.73184094164250602</v>
+      </c>
+      <c r="K77">
         <v>5856701</v>
       </c>
-      <c r="L77" s="0" t="s">
+      <c r="L77" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="0" t="n">
+      <c r="B78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78">
         <v>18</v>
       </c>
-      <c r="D78" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F78" s="0" t="s">
+      <c r="D78">
+        <v>4286</v>
+      </c>
+      <c r="F78" t="s">
         <v>14</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H78" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I78" s="0" t="n">
-        <v>0.285</v>
-      </c>
-      <c r="J78" s="1" t="n">
+      <c r="H78" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="J78" s="1">
         <v>5</v>
       </c>
-      <c r="K78" s="0" t="n">
+      <c r="K78">
         <v>116100</v>
       </c>
-      <c r="L78" s="0" t="s">
+      <c r="L78" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>75</v>
       </c>
-      <c r="B79" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="0" t="n">
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79">
         <v>19</v>
       </c>
-      <c r="D79" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F79" s="0" t="s">
+      <c r="D79">
+        <v>4286</v>
+      </c>
+      <c r="F79" t="s">
         <v>14</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H79" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I79" s="0" t="n">
+      <c r="H79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79">
         <v>1.92</v>
       </c>
-      <c r="J79" s="1" t="n">
-        <v>1.26035785906199</v>
-      </c>
-      <c r="K79" s="0" t="n">
+      <c r="J79" s="1">
+        <v>1.2603578590619899</v>
+      </c>
+      <c r="K79">
         <v>539345</v>
       </c>
-      <c r="L79" s="0" t="s">
+      <c r="L79" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" s="0" t="n">
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80">
         <v>20</v>
       </c>
-      <c r="D80" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F80" s="0" t="s">
+      <c r="D80">
+        <v>4286</v>
+      </c>
+      <c r="F80" t="s">
         <v>14</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H80" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I80" s="0" t="n">
+      <c r="H80" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80">
         <v>2.75</v>
       </c>
-      <c r="J80" s="1" t="n">
+      <c r="J80" s="1">
         <v>0.983532270778818</v>
       </c>
-      <c r="K80" s="0" t="n">
+      <c r="K80">
         <v>1028471</v>
       </c>
-      <c r="L80" s="0" t="s">
+      <c r="L80" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>75</v>
       </c>
-      <c r="B81" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" s="0" t="n">
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81">
         <v>21</v>
       </c>
-      <c r="D81" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F81" s="0" t="s">
+      <c r="D81">
+        <v>4286</v>
+      </c>
+      <c r="F81" t="s">
         <v>14</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H81" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I81" s="0" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="J81" s="1" t="n">
-        <v>0.909655723819782</v>
-      </c>
-      <c r="K81" s="0" t="n">
+      <c r="H81" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0.90965572381978199</v>
+      </c>
+      <c r="K81">
         <v>4639727</v>
       </c>
-      <c r="L81" s="0" t="s">
+      <c r="L81" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>75</v>
       </c>
-      <c r="B82" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82" s="0" t="n">
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82">
         <v>22</v>
       </c>
-      <c r="D82" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F82" s="0" t="s">
+      <c r="D82">
+        <v>4286</v>
+      </c>
+      <c r="F82" t="s">
         <v>14</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H82" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I82" s="0" t="n">
+      <c r="H82" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82">
         <v>3.64</v>
       </c>
-      <c r="J82" s="1" t="n">
-        <v>0.421594456544631</v>
-      </c>
-      <c r="K82" s="0" t="n">
+      <c r="J82" s="1">
+        <v>0.42159445654463101</v>
+      </c>
+      <c r="K82">
         <v>7271687</v>
       </c>
-      <c r="L82" s="0" t="s">
+      <c r="L82" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>75</v>
       </c>
-      <c r="B83" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" s="0" t="n">
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83">
         <v>23</v>
       </c>
-      <c r="D83" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F83" s="0" t="s">
+      <c r="D83">
+        <v>4286</v>
+      </c>
+      <c r="F83" t="s">
         <v>14</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H83" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I83" s="0" t="n">
+      <c r="H83" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83">
         <v>1.17</v>
       </c>
-      <c r="J83" s="1" t="n">
-        <v>1.43489148864983</v>
-      </c>
-      <c r="K83" s="0" t="n">
+      <c r="J83" s="1">
+        <v>1.4348914886498301</v>
+      </c>
+      <c r="K83">
         <v>1306802</v>
       </c>
-      <c r="L83" s="0" t="s">
+      <c r="L83" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>75</v>
       </c>
-      <c r="B84" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" s="0" t="n">
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84">
         <v>24</v>
       </c>
-      <c r="D84" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F84" s="0" t="s">
+      <c r="D84">
+        <v>4286</v>
+      </c>
+      <c r="F84" t="s">
         <v>14</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H84" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I84" s="0" t="n">
+      <c r="H84" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84">
         <v>1.99</v>
       </c>
-      <c r="J84" s="1" t="n">
+      <c r="J84" s="1">
         <v>1.17346141859654</v>
       </c>
-      <c r="K84" s="0" t="n">
+      <c r="K84">
         <v>2973090</v>
       </c>
-      <c r="L84" s="0" t="s">
+      <c r="L84" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>75</v>
       </c>
-      <c r="B85" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C85" s="0" t="n">
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85">
         <v>25</v>
       </c>
-      <c r="D85" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F85" s="0" t="s">
+      <c r="D85">
+        <v>4286</v>
+      </c>
+      <c r="F85" t="s">
         <v>14</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H85" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I85" s="0" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J85" s="1" t="n">
-        <v>1.03236338117814</v>
-      </c>
-      <c r="K85" s="0" t="n">
+      <c r="H85" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J85" s="1">
+        <v>1.0323633811781401</v>
+      </c>
+      <c r="K85">
         <v>4535112</v>
       </c>
-      <c r="L85" s="0" t="s">
+      <c r="L85" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+    <row r="86" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" s="0" t="n">
+      <c r="B86" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="16">
         <v>26</v>
       </c>
-      <c r="D86" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F86" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H86" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I86" s="0" t="n">
+      <c r="D86" s="16">
+        <v>4286</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="16">
         <v>6.46</v>
       </c>
-      <c r="J86" s="1" t="n">
+      <c r="J86" s="18">
         <v>0.67</v>
       </c>
-      <c r="K86" s="0" t="n">
+      <c r="K86" s="16">
         <v>2694384</v>
       </c>
-      <c r="L86" s="16" t="s">
+      <c r="L86" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>75</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" s="0" t="n">
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87">
         <v>27</v>
       </c>
-      <c r="D87" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F87" s="0" t="s">
+      <c r="D87">
+        <v>4286</v>
+      </c>
+      <c r="F87" t="s">
         <v>14</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H87" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I87" s="0" t="n">
+      <c r="H87" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87">
         <v>5.9</v>
       </c>
-      <c r="J87" s="1" t="n">
-        <v>0.912318288248075</v>
-      </c>
-      <c r="K87" s="0" t="n">
+      <c r="J87" s="1">
+        <v>0.91231828824807504</v>
+      </c>
+      <c r="K87">
         <v>2454585</v>
       </c>
-      <c r="L87" s="0" t="s">
+      <c r="L87" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>75</v>
       </c>
-      <c r="B88" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C88" s="0" t="n">
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88">
         <v>28</v>
       </c>
-      <c r="D88" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F88" s="0" t="s">
+      <c r="D88">
+        <v>4286</v>
+      </c>
+      <c r="F88" t="s">
         <v>14</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H88" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I88" s="0" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="J88" s="1" t="n">
-        <v>0.984285214144008</v>
-      </c>
-      <c r="K88" s="0" t="n">
+      <c r="H88" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0.98428521414400805</v>
+      </c>
+      <c r="K88">
         <v>9518979</v>
       </c>
-      <c r="L88" s="0" t="s">
+      <c r="L88" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>75</v>
       </c>
-      <c r="B89" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C89" s="0" t="n">
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89">
         <v>29</v>
       </c>
-      <c r="D89" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F89" s="0" t="s">
+      <c r="D89">
+        <v>4286</v>
+      </c>
+      <c r="F89" t="s">
         <v>14</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H89" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I89" s="0" t="n">
+      <c r="H89" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89">
         <v>5.98</v>
       </c>
-      <c r="J89" s="1" t="n">
-        <v>1.07024630491865</v>
-      </c>
-      <c r="K89" s="0" t="n">
+      <c r="J89" s="1">
+        <v>1.0702463049186499</v>
+      </c>
+      <c r="K89">
         <v>7292292</v>
       </c>
-      <c r="L89" s="0" t="s">
+      <c r="L89" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>75</v>
       </c>
-      <c r="B90" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C90" s="0" t="n">
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90">
         <v>30</v>
       </c>
-      <c r="D90" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F90" s="0" t="s">
+      <c r="D90">
+        <v>4286</v>
+      </c>
+      <c r="F90" t="s">
         <v>14</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H90" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I90" s="0" t="n">
+      <c r="H90" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90">
         <v>7.77</v>
       </c>
-      <c r="J90" s="1" t="n">
+      <c r="J90" s="1">
         <v>1.0458697621819</v>
       </c>
-      <c r="K90" s="0" t="n">
+      <c r="K90">
         <v>13891675</v>
       </c>
-      <c r="L90" s="0" t="s">
+      <c r="L90" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>75</v>
       </c>
-      <c r="B91" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C91" s="0" t="n">
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91">
         <v>31</v>
       </c>
-      <c r="D91" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F91" s="0" t="s">
+      <c r="D91">
+        <v>4286</v>
+      </c>
+      <c r="F91" t="s">
         <v>14</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H91" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I91" s="0" t="n">
+      <c r="H91" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91">
         <v>1.43</v>
       </c>
-      <c r="J91" s="1" t="n">
-        <v>1.25850733975344</v>
-      </c>
-      <c r="K91" s="0" t="n">
+      <c r="J91" s="1">
+        <v>1.2585073397534401</v>
+      </c>
+      <c r="K91">
         <v>3049392</v>
       </c>
-      <c r="L91" s="0" t="s">
+      <c r="L91" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>75</v>
       </c>
-      <c r="B92" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C92" s="0" t="n">
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92">
         <v>32</v>
       </c>
-      <c r="D92" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F92" s="0" t="s">
+      <c r="D92">
+        <v>4286</v>
+      </c>
+      <c r="F92" t="s">
         <v>14</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H92" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I92" s="0" t="n">
+      <c r="H92" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92">
         <v>1.67</v>
       </c>
-      <c r="J92" s="1" t="n">
-        <v>0.619513370343003</v>
-      </c>
-      <c r="K92" s="0" t="n">
+      <c r="J92" s="1">
+        <v>0.61951337034300302</v>
+      </c>
+      <c r="K92">
         <v>6069814</v>
       </c>
-      <c r="L92" s="0" t="s">
+      <c r="L92" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C93" s="0" t="n">
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93">
         <v>33</v>
       </c>
-      <c r="D93" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F93" s="0" t="s">
+      <c r="D93">
+        <v>4286</v>
+      </c>
+      <c r="F93" t="s">
         <v>14</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H93" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I93" s="0" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="J93" s="1" t="n">
+      <c r="H93" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="J93" s="1">
         <v>5</v>
       </c>
-      <c r="K93" s="0" t="n">
+      <c r="K93">
         <v>78131</v>
       </c>
-      <c r="L93" s="0" t="s">
+      <c r="L93" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>75</v>
       </c>
-      <c r="B94" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" s="0" t="n">
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94">
         <v>34</v>
       </c>
-      <c r="D94" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F94" s="0" t="s">
+      <c r="D94">
+        <v>4286</v>
+      </c>
+      <c r="F94" t="s">
         <v>14</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H94" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I94" s="0" t="n">
+      <c r="H94" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94">
         <v>1.23</v>
       </c>
-      <c r="J94" s="1" t="n">
-        <v>1.88131578242986</v>
-      </c>
-      <c r="K94" s="0" t="n">
+      <c r="J94" s="1">
+        <v>1.8813157824298601</v>
+      </c>
+      <c r="K94">
         <v>1905839</v>
       </c>
-      <c r="L94" s="0" t="s">
+      <c r="L94" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>75</v>
       </c>
-      <c r="B95" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95" s="0" t="n">
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95">
         <v>35</v>
       </c>
-      <c r="D95" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F95" s="0" t="s">
+      <c r="D95">
+        <v>4286</v>
+      </c>
+      <c r="F95" t="s">
         <v>14</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H95" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I95" s="0" t="n">
+      <c r="H95" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95">
         <v>3.76</v>
       </c>
-      <c r="J95" s="1" t="n">
-        <v>0.884291201129521</v>
-      </c>
-      <c r="K95" s="0" t="n">
+      <c r="J95" s="1">
+        <v>0.88429120112952098</v>
+      </c>
+      <c r="K95">
         <v>8138331</v>
       </c>
-      <c r="L95" s="0" t="s">
+      <c r="L95" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>75</v>
       </c>
-      <c r="B96" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" s="0" t="n">
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96">
         <v>36</v>
       </c>
-      <c r="D96" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F96" s="0" t="s">
+      <c r="D96">
+        <v>4286</v>
+      </c>
+      <c r="F96" t="s">
         <v>14</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H96" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I96" s="0" t="n">
+      <c r="H96" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96">
         <v>6.19</v>
       </c>
-      <c r="J96" s="1" t="n">
-        <v>1.0275162819558</v>
-      </c>
-      <c r="K96" s="0" t="n">
+      <c r="J96" s="1">
+        <v>1.0275162819557999</v>
+      </c>
+      <c r="K96">
         <v>5898605</v>
       </c>
-      <c r="L96" s="0" t="s">
+      <c r="L96" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>75</v>
       </c>
-      <c r="B97" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C97" s="0" t="n">
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97">
         <v>37</v>
       </c>
-      <c r="D97" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F97" s="0" t="s">
+      <c r="D97">
+        <v>4286</v>
+      </c>
+      <c r="F97" t="s">
         <v>14</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H97" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I97" s="0" t="n">
+      <c r="H97" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97">
         <v>13.1</v>
       </c>
-      <c r="J97" s="1" t="n">
-        <v>0.815511957910424</v>
-      </c>
-      <c r="K97" s="0" t="n">
+      <c r="J97" s="1">
+        <v>0.81551195791042397</v>
+      </c>
+      <c r="K97">
         <v>15887355</v>
       </c>
-      <c r="L97" s="0" t="s">
+      <c r="L97" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>75</v>
       </c>
-      <c r="B98" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C98" s="0" t="n">
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98">
         <v>38</v>
       </c>
-      <c r="D98" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F98" s="0" t="s">
+      <c r="D98">
+        <v>4286</v>
+      </c>
+      <c r="F98" t="s">
         <v>14</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H98" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I98" s="0" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="J98" s="1" t="n">
-        <v>0.821001502285876</v>
-      </c>
-      <c r="K98" s="0" t="n">
+      <c r="H98" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0.82100150228587598</v>
+      </c>
+      <c r="K98">
         <v>2677660</v>
       </c>
-      <c r="L98" s="0" t="s">
+      <c r="L98" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>75</v>
       </c>
-      <c r="B99" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99" s="0" t="n">
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99">
         <v>39</v>
       </c>
-      <c r="D99" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F99" s="0" t="s">
+      <c r="D99">
+        <v>4286</v>
+      </c>
+      <c r="F99" t="s">
         <v>14</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H99" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I99" s="0" t="n">
+      <c r="H99" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99">
         <v>2.99</v>
       </c>
-      <c r="J99" s="1" t="n">
+      <c r="J99" s="1">
         <v>1.3046950007786</v>
       </c>
-      <c r="K99" s="0" t="n">
+      <c r="K99">
         <v>4378892</v>
       </c>
-      <c r="L99" s="0" t="s">
+      <c r="L99" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>75</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C100" s="0" t="n">
+      <c r="B100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100">
         <v>40</v>
       </c>
-      <c r="D100" s="0" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F100" s="0" t="s">
+      <c r="D100">
+        <v>4286</v>
+      </c>
+      <c r="F100" t="s">
         <v>14</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H100" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I100" s="0" t="n">
+      <c r="H100" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100">
         <v>2.42</v>
       </c>
-      <c r="J100" s="1" t="n">
+      <c r="J100" s="1">
         <v>1.64704251205843</v>
       </c>
-      <c r="K100" s="0" t="n">
+      <c r="K100">
         <v>3258631</v>
       </c>
-      <c r="L100" s="0" t="s">
+      <c r="L100" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H42" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H42" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"spikein,fullRNASeq,fullgDNASeq,fullChIPSeq,Rebalancing"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G100" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G100" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"V3,Standard,Nano,MiniSeq,HighOutput,MidOutput"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F2:F42" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F42" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"MiSeq,MiniSeq,NextSeq"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/fastqFiles/fastq_J.PLAGGENBERG_03.18.20.xlsx
+++ b/fastqFiles/fastq_J.PLAGGENBERG_03.18.20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF6C3B1-F63E-B040-9ACD-7D7FAB551AEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F65C5B-30A6-CF4D-B4CC-02195AD87B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17680" yWindow="460" windowWidth="20920" windowHeight="19800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="460" windowWidth="34060" windowHeight="19800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="118">
   <si>
     <t>libraryDate</t>
   </si>
@@ -369,6 +369,24 @@
   </si>
   <si>
     <t>Brent/Brent_99_GTAC40_SIC_Index2_07_GTACGGCATC_GAGTTGGT_S101_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_41_GTAC1_SIC_Index2_09_TGAGGTTATC_GACCTTGT_S42_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_42_GTAC21_SIC_Index2_09_CTCAATGATC_TGTGAGGT_S43_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_43_GTAC22_SIC_Index2_09_AAATGCAATC_TGTGAGGT_S44_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_44_GTAC23_SIC_Index2_09_ACGCGGGATC_TGTGAGGT_S45_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_45_GTAC24_SIC_Index2_09_GGAGTCCATC_TGTGAGGT_S46_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent/Brent_46_GTAC25_SIC_Index2_09_CGTCGCTATC_TGTGAGGT_S47_R1_001.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -864,15 +882,16 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="9" width="10.83203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="9" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="76.33203125" customWidth="1"/>
     <col min="13" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
@@ -2376,7 +2395,7 @@
         <v>3341</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -2411,7 +2430,7 @@
         <v>3833001</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -2446,7 +2465,7 @@
         <v>2979687</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -2481,7 +2500,7 @@
         <v>3775249</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -2516,7 +2535,7 @@
         <v>2618801</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -2551,7 +2570,7 @@
         <v>4016231</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -2586,7 +2605,7 @@
         <v>5116059</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2621,7 +2640,7 @@
         <v>3810168</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2656,7 +2675,7 @@
         <v>3705711</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2691,7 +2710,7 @@
         <v>5217361</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2726,7 +2745,7 @@
         <v>3436627</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2761,7 +2780,7 @@
         <v>3600852</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2796,7 +2815,7 @@
         <v>405872</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2831,7 +2850,7 @@
         <v>3996125</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2866,7 +2885,7 @@
         <v>3411619</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2901,7 +2920,7 @@
         <v>3249254</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2936,7 +2955,7 @@
         <v>2678609</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2971,7 +2990,7 @@
         <v>2459097</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -3006,7 +3025,7 @@
         <v>727852</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">

--- a/fastqFiles/fastq_J.PLAGGENBERG_03.18.20.xlsx
+++ b/fastqFiles/fastq_J.PLAGGENBERG_03.18.20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F65C5B-30A6-CF4D-B4CC-02195AD87B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEDBC65-38FF-224B-B417-26991493F385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="460" windowWidth="34060" windowHeight="19800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21460" yWindow="460" windowWidth="16940" windowHeight="19800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -880,18 +880,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O55" sqref="O55"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="9" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="4" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
     <col min="12" max="12" width="76.33203125" customWidth="1"/>
     <col min="13" max="1025" width="10.6640625" customWidth="1"/>
   </cols>

--- a/fastqFiles/fastq_J.PLAGGENBERG_03.18.20.xlsx
+++ b/fastqFiles/fastq_J.PLAGGENBERG_03.18.20.xlsx
@@ -380,15 +380,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="167" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="5">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -410,60 +407,34 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
+      <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8.5"/>
-      <color rgb="FF000000"/>
-      <name val="Menlo"/>
-      <family val="2"/>
+      <name val="Cambria"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -492,77 +463,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -574,66 +481,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF222222"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -642,1543 +489,1512 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="M:Q"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="0" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="76.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="6" t="n">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="9" t="n">
+      <c r="D2" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="0" t="n">
         <v>1.65</v>
       </c>
-      <c r="J2" s="10" t="n">
+      <c r="J2" s="0" t="n">
         <v>4.7984149616928</v>
       </c>
-      <c r="K2" s="11" t="n">
+      <c r="K2" s="0" t="n">
         <v>55451</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6" t="n">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="9" t="n">
+      <c r="D3" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="0" t="n">
         <v>3.89</v>
       </c>
-      <c r="J3" s="10" t="n">
+      <c r="J3" s="0" t="n">
         <v>2.08710136917786</v>
       </c>
-      <c r="K3" s="11" t="n">
+      <c r="K3" s="0" t="n">
         <v>60066</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6" t="n">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="9" t="n">
+      <c r="D4" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="0" t="n">
         <v>0.262</v>
       </c>
-      <c r="J4" s="10" t="n">
+      <c r="J4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K4" s="11" t="n">
+      <c r="K4" s="0" t="n">
         <v>7955</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="n">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="9" t="n">
+      <c r="D5" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="0" t="n">
         <v>1.08</v>
       </c>
-      <c r="J5" s="10" t="n">
+      <c r="J5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K5" s="11" t="n">
+      <c r="K5" s="0" t="n">
         <v>5359</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6" t="n">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="9" t="n">
+      <c r="D6" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="0" t="n">
         <v>6.9</v>
       </c>
-      <c r="J6" s="10" t="n">
+      <c r="J6" s="0" t="n">
         <v>1.24863798134599</v>
       </c>
-      <c r="K6" s="11" t="n">
+      <c r="K6" s="0" t="n">
         <v>39692</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6" t="n">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="9" t="n">
+      <c r="D7" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="0" t="n">
         <v>1.68</v>
       </c>
-      <c r="J7" s="10" t="n">
+      <c r="J7" s="0" t="n">
         <v>1.3217309232807</v>
       </c>
-      <c r="K7" s="11" t="n">
+      <c r="K7" s="0" t="n">
         <v>59123</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6" t="n">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="9" t="n">
+      <c r="D8" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="0" t="n">
         <v>3.33</v>
       </c>
-      <c r="J8" s="10" t="n">
+      <c r="J8" s="0" t="n">
         <v>1.99625771903995</v>
       </c>
-      <c r="K8" s="11" t="n">
+      <c r="K8" s="0" t="n">
         <v>47963</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6" t="n">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="9" t="n">
+      <c r="D9" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="0" t="n">
         <v>1.62</v>
       </c>
-      <c r="J9" s="10" t="n">
+      <c r="J9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K9" s="11" t="n">
+      <c r="K9" s="0" t="n">
         <v>63306</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6" t="n">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D10" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="9" t="n">
+      <c r="D10" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="0" t="n">
         <v>2.26</v>
       </c>
-      <c r="J10" s="10" t="n">
+      <c r="J10" s="0" t="n">
         <v>3.66079674926623</v>
       </c>
-      <c r="K10" s="11" t="n">
+      <c r="K10" s="0" t="n">
         <v>784064</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="0" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="6" t="n">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="9" t="n">
+      <c r="D11" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="0" t="n">
         <v>7.84</v>
       </c>
-      <c r="J11" s="10" t="n">
+      <c r="J11" s="0" t="n">
         <v>1.18347293039476</v>
       </c>
-      <c r="K11" s="11" t="n">
+      <c r="K11" s="0" t="n">
         <v>3954703</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="6" t="n">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D12" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="9" t="n">
+      <c r="D12" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="0" t="n">
         <v>3.8</v>
       </c>
-      <c r="J12" s="10" t="n">
+      <c r="J12" s="0" t="n">
         <v>2.49815060960477</v>
       </c>
-      <c r="K12" s="11" t="n">
+      <c r="K12" s="0" t="n">
         <v>4126169</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="9" t="n">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="J13" s="10" t="n">
+      <c r="J13" s="0" t="n">
         <v>2.43735197297303</v>
       </c>
-      <c r="K13" s="11" t="n">
+      <c r="K13" s="0" t="n">
         <v>3913541</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="9" t="n">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="0" t="n">
         <v>0.412</v>
       </c>
-      <c r="J14" s="10" t="n">
+      <c r="J14" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K14" s="11" t="n">
+      <c r="K14" s="0" t="n">
         <v>508058</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="9" t="n">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="0" t="n">
         <v>6.64</v>
       </c>
-      <c r="J15" s="10" t="n">
+      <c r="J15" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K15" s="11" t="n">
+      <c r="K15" s="0" t="n">
         <v>2276532</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="0" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="9" t="n">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="0" t="n">
         <v>5.74</v>
       </c>
-      <c r="J16" s="10" t="n">
+      <c r="J16" s="0" t="n">
         <v>2.19560932627155</v>
       </c>
-      <c r="K16" s="11" t="n">
+      <c r="K16" s="0" t="n">
         <v>3696561</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="6" t="n">
-        <v>16</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="9" t="n">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="0" t="n">
         <v>1.03</v>
       </c>
-      <c r="J17" s="10" t="n">
+      <c r="J17" s="0" t="n">
         <v>2.41034525451499</v>
       </c>
-      <c r="K17" s="11" t="n">
+      <c r="K17" s="0" t="n">
         <v>3436666</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="6" t="n">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="D18" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="9" t="n">
+      <c r="D18" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="0" t="n">
         <v>2.08</v>
       </c>
-      <c r="J18" s="10" t="n">
+      <c r="J18" s="0" t="n">
         <v>3.96983694033851</v>
       </c>
-      <c r="K18" s="11" t="n">
+      <c r="K18" s="0" t="n">
         <v>916080</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="6" t="n">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D19" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="9" t="n">
+      <c r="D19" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="0" t="n">
         <v>1.82</v>
       </c>
-      <c r="J19" s="10" t="n">
+      <c r="J19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K19" s="11" t="n">
+      <c r="K19" s="0" t="n">
         <v>3305658</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="L19" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="6" t="n">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D20" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="9" t="n">
+      <c r="D20" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="0" t="n">
         <v>10.4</v>
       </c>
-      <c r="J20" s="10" t="n">
+      <c r="J20" s="0" t="n">
         <v>0.775759127451482</v>
       </c>
-      <c r="K20" s="11" t="n">
+      <c r="K20" s="0" t="n">
         <v>3010555</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="6" t="n">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D21" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="9" t="n">
+      <c r="D21" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="0" t="n">
         <v>12.2</v>
       </c>
-      <c r="J21" s="10" t="n">
+      <c r="J21" s="0" t="n">
         <v>0.884548096909322</v>
       </c>
-      <c r="K21" s="11" t="n">
+      <c r="K21" s="0" t="n">
         <v>3912197</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="6" t="n">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D22" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="9" t="n">
+      <c r="D22" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="0" t="n">
         <v>4.79</v>
       </c>
-      <c r="J22" s="10" t="n">
+      <c r="J22" s="0" t="n">
         <v>2.04322283158842</v>
       </c>
-      <c r="K22" s="11" t="n">
+      <c r="K22" s="0" t="n">
         <v>3751946</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="L22" s="0" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="6" t="n">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D23" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="9" t="n">
+      <c r="D23" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="0" t="n">
         <v>2.76</v>
       </c>
-      <c r="J23" s="10" t="n">
+      <c r="J23" s="0" t="n">
         <v>2.32144018127025</v>
       </c>
-      <c r="K23" s="11" t="n">
+      <c r="K23" s="0" t="n">
         <v>3752445</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="0" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="6" t="n">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D24" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="9" t="n">
+      <c r="D24" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="0" t="n">
         <v>3.83</v>
       </c>
-      <c r="J24" s="10" t="n">
+      <c r="J24" s="0" t="n">
         <v>2.20089990828023</v>
       </c>
-      <c r="K24" s="11" t="n">
+      <c r="K24" s="0" t="n">
         <v>3303951</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="6" t="n">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D25" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="9" t="n">
+      <c r="D25" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="0" t="n">
         <v>1.54</v>
       </c>
-      <c r="J25" s="10" t="n">
+      <c r="J25" s="0" t="n">
         <v>4.54047547429727</v>
       </c>
-      <c r="K25" s="11" t="n">
+      <c r="K25" s="0" t="n">
         <v>3597754</v>
       </c>
-      <c r="L25" s="12" t="s">
+      <c r="L25" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="6" t="n">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D26" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="9" t="n">
+      <c r="D26" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="0" t="n">
         <v>2.81</v>
       </c>
-      <c r="J26" s="10" t="n">
+      <c r="J26" s="0" t="n">
         <v>2.68547693112633</v>
       </c>
-      <c r="K26" s="11" t="n">
+      <c r="K26" s="0" t="n">
         <v>3628270</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="L26" s="0" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="3" t="s">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D27" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="9" t="n">
+      <c r="D27" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="0" t="n">
         <v>10.9</v>
       </c>
-      <c r="J27" s="10" t="n">
+      <c r="J27" s="0" t="n">
         <v>0.919446283545198</v>
       </c>
-      <c r="K27" s="13" t="n">
+      <c r="K27" s="0" t="n">
         <v>3911628</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="L27" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="3" t="s">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D28" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="9" t="n">
+      <c r="D28" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="0" t="n">
         <v>7.93</v>
       </c>
-      <c r="J28" s="10" t="n">
+      <c r="J28" s="0" t="n">
         <v>0.984695296721899</v>
       </c>
-      <c r="K28" s="13" t="n">
+      <c r="K28" s="0" t="n">
         <v>3168891</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="0" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="6" t="n">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D29" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="9" t="n">
+      <c r="D29" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="0" t="n">
         <v>0.452</v>
       </c>
-      <c r="J29" s="10" t="n">
+      <c r="J29" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K29" s="11" t="n">
+      <c r="K29" s="0" t="n">
         <v>866086</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="L29" s="0" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="6" t="n">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D30" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="9" t="n">
+      <c r="D30" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="0" t="n">
         <v>3.45</v>
       </c>
-      <c r="J30" s="10" t="n">
+      <c r="J30" s="0" t="n">
         <v>3.19059607018294</v>
       </c>
-      <c r="K30" s="11" t="n">
+      <c r="K30" s="0" t="n">
         <v>4019814</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="L30" s="0" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="6" t="n">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D31" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="9" t="n">
+      <c r="D31" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="0" t="n">
         <v>0.665</v>
       </c>
-      <c r="J31" s="10" t="n">
+      <c r="J31" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K31" s="11" t="n">
+      <c r="K31" s="0" t="n">
         <v>211104</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="0" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="6" t="n">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D32" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="9" t="n">
+      <c r="D32" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="0" t="n">
         <v>0.699</v>
       </c>
-      <c r="J32" s="10" t="n">
+      <c r="J32" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K32" s="11" t="n">
+      <c r="K32" s="0" t="n">
         <v>782240</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="L32" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="6" t="n">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="D33" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="9" t="n">
+      <c r="D33" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="0" t="n">
         <v>0.716</v>
       </c>
-      <c r="J33" s="10" t="n">
+      <c r="J33" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K33" s="11" t="n">
+      <c r="K33" s="0" t="n">
         <v>710362</v>
       </c>
-      <c r="L33" s="12" t="s">
+      <c r="L33" s="0" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="6" t="n">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D34" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="9" t="n">
+      <c r="D34" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="0" t="n">
         <v>1.85</v>
       </c>
-      <c r="J34" s="10" t="n">
+      <c r="J34" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K34" s="11" t="n">
+      <c r="K34" s="0" t="n">
         <v>3309231</v>
       </c>
-      <c r="L34" s="12" t="s">
+      <c r="L34" s="0" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="6" t="n">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D35" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="9" t="n">
+      <c r="D35" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="0" t="n">
         <v>1.52</v>
       </c>
-      <c r="J35" s="10" t="n">
+      <c r="J35" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K35" s="11" t="n">
+      <c r="K35" s="0" t="n">
         <v>2279559</v>
       </c>
-      <c r="L35" s="12" t="s">
+      <c r="L35" s="0" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="6" t="n">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D36" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="9" t="n">
+      <c r="D36" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="0" t="n">
         <v>0.617</v>
       </c>
-      <c r="J36" s="10" t="n">
+      <c r="J36" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K36" s="11" t="n">
+      <c r="K36" s="0" t="n">
         <v>1404638</v>
       </c>
-      <c r="L36" s="12" t="s">
+      <c r="L36" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="6" t="n">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="D37" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="9" t="n">
+      <c r="D37" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="0" t="n">
         <v>4.27</v>
       </c>
-      <c r="J37" s="10" t="n">
+      <c r="J37" s="0" t="n">
         <v>2.46767342891953</v>
       </c>
-      <c r="K37" s="11" t="n">
+      <c r="K37" s="0" t="n">
         <v>4012248</v>
       </c>
-      <c r="L37" s="12" t="s">
+      <c r="L37" s="0" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="6" t="n">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="D38" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="9" t="n">
+      <c r="D38" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="0" t="n">
         <v>2.4</v>
       </c>
-      <c r="J38" s="10" t="n">
+      <c r="J38" s="0" t="n">
         <v>3.71681165657483</v>
       </c>
-      <c r="K38" s="11" t="n">
+      <c r="K38" s="0" t="n">
         <v>3714840</v>
       </c>
-      <c r="L38" s="12" t="s">
+      <c r="L38" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="6" t="n">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="D39" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="9" t="n">
+      <c r="D39" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="0" t="n">
         <v>4.2</v>
       </c>
-      <c r="J39" s="10" t="n">
+      <c r="J39" s="0" t="n">
         <v>1.4272268286901</v>
       </c>
-      <c r="K39" s="11" t="n">
+      <c r="K39" s="0" t="n">
         <v>3185789</v>
       </c>
-      <c r="L39" s="12" t="s">
+      <c r="L39" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="6" t="n">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="D40" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="9" t="n">
+      <c r="D40" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="0" t="n">
         <v>1.19</v>
       </c>
-      <c r="J40" s="10" t="n">
+      <c r="J40" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K40" s="11" t="n">
+      <c r="K40" s="0" t="n">
         <v>3132666</v>
       </c>
-      <c r="L40" s="12" t="s">
+      <c r="L40" s="0" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="6" t="n">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="D41" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="9" t="n">
+      <c r="D41" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="0" t="n">
         <v>1.39</v>
       </c>
-      <c r="J41" s="10" t="n">
+      <c r="J41" s="0" t="n">
         <v>4.99388080454535</v>
       </c>
-      <c r="K41" s="11" t="n">
+      <c r="K41" s="0" t="n">
         <v>3650966</v>
       </c>
-      <c r="L41" s="12" t="s">
+      <c r="L41" s="0" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="s">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="6" t="n">
+      <c r="B42" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D42" s="7" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="9" t="n">
+      <c r="D42" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="0" t="n">
         <v>5.64</v>
       </c>
-      <c r="J42" s="10" t="n">
+      <c r="J42" s="0" t="n">
         <v>1.50004428271992</v>
       </c>
-      <c r="K42" s="11" t="n">
+      <c r="K42" s="0" t="n">
         <v>3341</v>
       </c>
-      <c r="L42" s="12" t="s">
+      <c r="L42" s="0" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="3" t="n">
+      <c r="B43" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D43" s="7" t="n">
+      <c r="D43" s="0" t="n">
         <v>4286</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H43" s="0" t="s">
@@ -2187,33 +2003,33 @@
       <c r="I43" s="0" t="n">
         <v>7.95</v>
       </c>
-      <c r="J43" s="1" t="n">
+      <c r="J43" s="0" t="n">
         <v>0.940910811430966</v>
       </c>
-      <c r="K43" s="13" t="n">
+      <c r="K43" s="0" t="n">
         <v>3833001</v>
       </c>
-      <c r="L43" s="8" t="s">
+      <c r="L43" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="3" t="n">
+      <c r="B44" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D44" s="7" t="n">
+      <c r="D44" s="0" t="n">
         <v>4286</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H44" s="0" t="s">
@@ -2222,33 +2038,33 @@
       <c r="I44" s="0" t="n">
         <v>11.4</v>
       </c>
-      <c r="J44" s="1" t="n">
+      <c r="J44" s="0" t="n">
         <v>0.70447921959666</v>
       </c>
-      <c r="K44" s="13" t="n">
+      <c r="K44" s="0" t="n">
         <v>2979687</v>
       </c>
-      <c r="L44" s="8" t="s">
+      <c r="L44" s="0" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="14" t="n">
+      <c r="B45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D45" s="7" t="n">
+      <c r="D45" s="0" t="n">
         <v>4286</v>
       </c>
       <c r="F45" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H45" s="0" t="s">
@@ -2257,33 +2073,33 @@
       <c r="I45" s="0" t="n">
         <v>10.4</v>
       </c>
-      <c r="J45" s="1" t="n">
+      <c r="J45" s="0" t="n">
         <v>0.93194502542261</v>
       </c>
-      <c r="K45" s="13" t="n">
+      <c r="K45" s="0" t="n">
         <v>3775249</v>
       </c>
-      <c r="L45" s="8" t="s">
+      <c r="L45" s="0" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="3" t="n">
+      <c r="B46" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D46" s="7" t="n">
+      <c r="D46" s="0" t="n">
         <v>4286</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H46" s="0" t="s">
@@ -2292,33 +2108,33 @@
       <c r="I46" s="0" t="n">
         <v>2.2</v>
       </c>
-      <c r="J46" s="1" t="n">
+      <c r="J46" s="0" t="n">
         <v>3.7</v>
       </c>
-      <c r="K46" s="13" t="n">
+      <c r="K46" s="0" t="n">
         <v>2618801</v>
       </c>
-      <c r="L46" s="8" t="s">
+      <c r="L46" s="0" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="3" t="n">
+      <c r="B47" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D47" s="7" t="n">
+      <c r="D47" s="0" t="n">
         <v>4286</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H47" s="0" t="s">
@@ -2327,33 +2143,33 @@
       <c r="I47" s="0" t="n">
         <v>5.89</v>
       </c>
-      <c r="J47" s="1" t="n">
+      <c r="J47" s="0" t="n">
         <v>1.55606533337618</v>
       </c>
-      <c r="K47" s="13" t="n">
+      <c r="K47" s="0" t="n">
         <v>4016231</v>
       </c>
-      <c r="L47" s="8" t="s">
+      <c r="L47" s="0" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="3" t="n">
+      <c r="B48" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D48" s="7" t="n">
+      <c r="D48" s="0" t="n">
         <v>4286</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H48" s="0" t="s">
@@ -2362,33 +2178,33 @@
       <c r="I48" s="0" t="n">
         <v>11.5</v>
       </c>
-      <c r="J48" s="1" t="n">
+      <c r="J48" s="0" t="n">
         <v>1.20357038650539</v>
       </c>
-      <c r="K48" s="13" t="n">
+      <c r="K48" s="0" t="n">
         <v>5116059</v>
       </c>
-      <c r="L48" s="8" t="s">
+      <c r="L48" s="0" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="14" t="n">
+      <c r="B49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D49" s="7" t="n">
+      <c r="D49" s="0" t="n">
         <v>4286</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H49" s="0" t="s">
@@ -2397,33 +2213,33 @@
       <c r="I49" s="0" t="n">
         <v>6.58</v>
       </c>
-      <c r="J49" s="1" t="n">
+      <c r="J49" s="0" t="n">
         <v>1.26992853566283</v>
       </c>
-      <c r="K49" s="13" t="n">
+      <c r="K49" s="0" t="n">
         <v>3810168</v>
       </c>
-      <c r="L49" s="8" t="s">
+      <c r="L49" s="0" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="3" t="n">
+      <c r="B50" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D50" s="7" t="n">
+      <c r="D50" s="0" t="n">
         <v>4286</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H50" s="0" t="s">
@@ -2432,33 +2248,33 @@
       <c r="I50" s="0" t="n">
         <v>12.6</v>
       </c>
-      <c r="J50" s="1" t="n">
+      <c r="J50" s="0" t="n">
         <v>0.90926441638258</v>
       </c>
-      <c r="K50" s="13" t="n">
+      <c r="K50" s="0" t="n">
         <v>3705711</v>
       </c>
-      <c r="L50" s="8" t="s">
+      <c r="L50" s="0" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="3" t="n">
+      <c r="B51" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D51" s="7" t="n">
+      <c r="D51" s="0" t="n">
         <v>4286</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H51" s="0" t="s">
@@ -2467,33 +2283,33 @@
       <c r="I51" s="0" t="n">
         <v>13.7</v>
       </c>
-      <c r="J51" s="1" t="n">
+      <c r="J51" s="0" t="n">
         <v>1.42193867451211</v>
       </c>
-      <c r="K51" s="13" t="n">
+      <c r="K51" s="0" t="n">
         <v>5217361</v>
       </c>
-      <c r="L51" s="8" t="s">
+      <c r="L51" s="0" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="14" t="n">
+      <c r="B52" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="D52" s="7" t="n">
+      <c r="D52" s="0" t="n">
         <v>4286</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H52" s="0" t="s">
@@ -2502,33 +2318,33 @@
       <c r="I52" s="0" t="n">
         <v>5.51</v>
       </c>
-      <c r="J52" s="1" t="n">
+      <c r="J52" s="0" t="n">
         <v>1.51055075757572</v>
       </c>
-      <c r="K52" s="13" t="n">
+      <c r="K52" s="0" t="n">
         <v>3436627</v>
       </c>
-      <c r="L52" s="8" t="s">
+      <c r="L52" s="0" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="3" t="n">
+      <c r="B53" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D53" s="7" t="n">
+      <c r="D53" s="0" t="n">
         <v>4286</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H53" s="0" t="s">
@@ -2537,33 +2353,33 @@
       <c r="I53" s="0" t="n">
         <v>4.13</v>
       </c>
-      <c r="J53" s="1" t="n">
+      <c r="J53" s="0" t="n">
         <v>1.92965336064587</v>
       </c>
-      <c r="K53" s="13" t="n">
+      <c r="K53" s="0" t="n">
         <v>3600852</v>
       </c>
-      <c r="L53" s="8" t="s">
+      <c r="L53" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" s="3" t="n">
+      <c r="B54" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D54" s="7" t="n">
+      <c r="D54" s="0" t="n">
         <v>4286</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G54" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H54" s="0" t="s">
@@ -2572,33 +2388,33 @@
       <c r="I54" s="0" t="n">
         <v>0.499</v>
       </c>
-      <c r="J54" s="1" t="n">
+      <c r="J54" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K54" s="13" t="n">
+      <c r="K54" s="0" t="n">
         <v>405872</v>
       </c>
-      <c r="L54" s="8" t="s">
+      <c r="L54" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="14" t="n">
+      <c r="B55" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D55" s="7" t="n">
+      <c r="D55" s="0" t="n">
         <v>4286</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H55" s="0" t="s">
@@ -2607,33 +2423,33 @@
       <c r="I55" s="0" t="n">
         <v>10.2</v>
       </c>
-      <c r="J55" s="1" t="n">
+      <c r="J55" s="0" t="n">
         <v>0.780949729885769</v>
       </c>
-      <c r="K55" s="13" t="n">
+      <c r="K55" s="0" t="n">
         <v>3996125</v>
       </c>
-      <c r="L55" s="8" t="s">
+      <c r="L55" s="0" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="3" t="n">
+      <c r="B56" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="D56" s="7" t="n">
+      <c r="D56" s="0" t="n">
         <v>4286</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H56" s="0" t="s">
@@ -2642,33 +2458,33 @@
       <c r="I56" s="0" t="n">
         <v>7.85</v>
       </c>
-      <c r="J56" s="1" t="n">
+      <c r="J56" s="0" t="n">
         <v>1.10210084290367</v>
       </c>
-      <c r="K56" s="13" t="n">
+      <c r="K56" s="0" t="n">
         <v>3411619</v>
       </c>
-      <c r="L56" s="8" t="s">
+      <c r="L56" s="0" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="3" t="n">
+      <c r="B57" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="D57" s="7" t="n">
+      <c r="D57" s="0" t="n">
         <v>4286</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H57" s="0" t="s">
@@ -2677,33 +2493,33 @@
       <c r="I57" s="0" t="n">
         <v>1.7</v>
       </c>
-      <c r="J57" s="1" t="n">
+      <c r="J57" s="0" t="n">
         <v>4.3685643761613</v>
       </c>
-      <c r="K57" s="13" t="n">
+      <c r="K57" s="0" t="n">
         <v>3249254</v>
       </c>
-      <c r="L57" s="8" t="s">
+      <c r="L57" s="0" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="14" t="n">
+      <c r="B58" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="D58" s="7" t="n">
+      <c r="D58" s="0" t="n">
         <v>4286</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="G58" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H58" s="0" t="s">
@@ -2712,33 +2528,33 @@
       <c r="I58" s="0" t="n">
         <v>4.32</v>
       </c>
-      <c r="J58" s="1" t="n">
+      <c r="J58" s="0" t="n">
         <v>1.54496329938281</v>
       </c>
-      <c r="K58" s="13" t="n">
+      <c r="K58" s="0" t="n">
         <v>2678609</v>
       </c>
-      <c r="L58" s="8" t="s">
+      <c r="L58" s="0" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="3" t="n">
+      <c r="B59" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="D59" s="7" t="n">
+      <c r="D59" s="0" t="n">
         <v>4286</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H59" s="0" t="s">
@@ -2747,33 +2563,33 @@
       <c r="I59" s="0" t="n">
         <v>19.7</v>
       </c>
-      <c r="J59" s="1" t="n">
+      <c r="J59" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K59" s="13" t="n">
+      <c r="K59" s="0" t="n">
         <v>2459097</v>
       </c>
-      <c r="L59" s="8" t="s">
+      <c r="L59" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="3" t="n">
+      <c r="B60" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="D60" s="7" t="n">
+      <c r="D60" s="0" t="n">
         <v>4286</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="8" t="s">
+      <c r="G60" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H60" s="0" t="s">
@@ -2782,33 +2598,33 @@
       <c r="I60" s="0" t="n">
         <v>4.32</v>
       </c>
-      <c r="J60" s="1" t="n">
+      <c r="J60" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K60" s="13" t="n">
+      <c r="K60" s="0" t="n">
         <v>727852</v>
       </c>
-      <c r="L60" s="8" t="s">
+      <c r="L60" s="0" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="14" t="n">
+      <c r="B61" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D61" s="7" t="n">
+      <c r="D61" s="0" t="n">
         <v>4286</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G61" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H61" s="0" t="s">
@@ -2817,17 +2633,17 @@
       <c r="I61" s="0" t="n">
         <v>7.8</v>
       </c>
-      <c r="J61" s="1" t="n">
+      <c r="J61" s="0" t="n">
         <v>1.09272075722988</v>
       </c>
-      <c r="K61" s="13" t="n">
+      <c r="K61" s="0" t="n">
         <v>6236148</v>
       </c>
-      <c r="L61" s="8" t="s">
+      <c r="L61" s="0" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>77</v>
       </c>
@@ -2843,7 +2659,7 @@
       <c r="F62" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="G62" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H62" s="0" t="s">
@@ -2852,7 +2668,7 @@
       <c r="I62" s="0" t="n">
         <v>1.32</v>
       </c>
-      <c r="J62" s="1" t="n">
+      <c r="J62" s="0" t="n">
         <v>1.43162946383106</v>
       </c>
       <c r="K62" s="0" t="n">
@@ -2862,7 +2678,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>77</v>
       </c>
@@ -2878,7 +2694,7 @@
       <c r="F63" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H63" s="0" t="s">
@@ -2887,7 +2703,7 @@
       <c r="I63" s="0" t="n">
         <v>5.72</v>
       </c>
-      <c r="J63" s="1" t="n">
+      <c r="J63" s="0" t="n">
         <v>0.84376531851507</v>
       </c>
       <c r="K63" s="0" t="n">
@@ -2897,7 +2713,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>77</v>
       </c>
@@ -2913,7 +2729,7 @@
       <c r="F64" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G64" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H64" s="0" t="s">
@@ -2922,7 +2738,7 @@
       <c r="I64" s="0" t="n">
         <v>3.13</v>
       </c>
-      <c r="J64" s="1" t="n">
+      <c r="J64" s="0" t="n">
         <v>0.895012369504732</v>
       </c>
       <c r="K64" s="0" t="n">
@@ -2932,7 +2748,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>77</v>
       </c>
@@ -2948,7 +2764,7 @@
       <c r="F65" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="G65" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H65" s="0" t="s">
@@ -2957,7 +2773,7 @@
       <c r="I65" s="0" t="n">
         <v>1.13</v>
       </c>
-      <c r="J65" s="1" t="n">
+      <c r="J65" s="0" t="n">
         <v>1.44836148619642</v>
       </c>
       <c r="K65" s="0" t="n">
@@ -2967,7 +2783,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>77</v>
       </c>
@@ -2983,7 +2799,7 @@
       <c r="F66" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H66" s="0" t="s">
@@ -2992,7 +2808,7 @@
       <c r="I66" s="0" t="n">
         <v>6.86</v>
       </c>
-      <c r="J66" s="1" t="n">
+      <c r="J66" s="0" t="n">
         <v>0.886934594102343</v>
       </c>
       <c r="K66" s="0" t="n">
@@ -3002,7 +2818,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>77</v>
       </c>
@@ -3018,7 +2834,7 @@
       <c r="F67" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G67" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H67" s="0" t="s">
@@ -3027,7 +2843,7 @@
       <c r="I67" s="0" t="n">
         <v>4.1</v>
       </c>
-      <c r="J67" s="1" t="n">
+      <c r="J67" s="0" t="n">
         <v>0.440995561987861</v>
       </c>
       <c r="K67" s="0" t="n">
@@ -3037,7 +2853,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>77</v>
       </c>
@@ -3053,7 +2869,7 @@
       <c r="F68" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="8" t="s">
+      <c r="G68" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H68" s="0" t="s">
@@ -3062,7 +2878,7 @@
       <c r="I68" s="0" t="n">
         <v>5.46</v>
       </c>
-      <c r="J68" s="1" t="n">
+      <c r="J68" s="0" t="n">
         <v>0.812227671380449</v>
       </c>
       <c r="K68" s="0" t="n">
@@ -3072,7 +2888,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>77</v>
       </c>
@@ -3088,7 +2904,7 @@
       <c r="F69" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G69" s="8" t="s">
+      <c r="G69" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H69" s="0" t="s">
@@ -3097,7 +2913,7 @@
       <c r="I69" s="0" t="n">
         <v>8.47</v>
       </c>
-      <c r="J69" s="1" t="n">
+      <c r="J69" s="0" t="n">
         <v>0.885179043700936</v>
       </c>
       <c r="K69" s="0" t="n">
@@ -3107,7 +2923,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>77</v>
       </c>
@@ -3123,7 +2939,7 @@
       <c r="F70" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="G70" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H70" s="0" t="s">
@@ -3132,7 +2948,7 @@
       <c r="I70" s="0" t="n">
         <v>6.99</v>
       </c>
-      <c r="J70" s="1" t="n">
+      <c r="J70" s="0" t="n">
         <v>1.1265503801765</v>
       </c>
       <c r="K70" s="0" t="n">
@@ -3142,7 +2958,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>77</v>
       </c>
@@ -3158,7 +2974,7 @@
       <c r="F71" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H71" s="0" t="s">
@@ -3167,7 +2983,7 @@
       <c r="I71" s="0" t="n">
         <v>4.13</v>
       </c>
-      <c r="J71" s="1" t="n">
+      <c r="J71" s="0" t="n">
         <v>0.807361105793162</v>
       </c>
       <c r="K71" s="0" t="n">
@@ -3177,7 +2993,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>77</v>
       </c>
@@ -3193,7 +3009,7 @@
       <c r="F72" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="G72" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H72" s="0" t="s">
@@ -3202,7 +3018,7 @@
       <c r="I72" s="0" t="n">
         <v>2.41</v>
       </c>
-      <c r="J72" s="1" t="n">
+      <c r="J72" s="0" t="n">
         <v>0.710998651230752</v>
       </c>
       <c r="K72" s="0" t="n">
@@ -3212,7 +3028,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>77</v>
       </c>
@@ -3228,7 +3044,7 @@
       <c r="F73" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G73" s="8" t="s">
+      <c r="G73" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H73" s="0" t="s">
@@ -3237,7 +3053,7 @@
       <c r="I73" s="0" t="n">
         <v>3.51</v>
       </c>
-      <c r="J73" s="1" t="n">
+      <c r="J73" s="0" t="n">
         <v>0.835268967420476</v>
       </c>
       <c r="K73" s="0" t="n">
@@ -3247,7 +3063,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>77</v>
       </c>
@@ -3263,7 +3079,7 @@
       <c r="F74" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G74" s="8" t="s">
+      <c r="G74" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H74" s="0" t="s">
@@ -3272,7 +3088,7 @@
       <c r="I74" s="0" t="n">
         <v>8.51</v>
       </c>
-      <c r="J74" s="1" t="n">
+      <c r="J74" s="0" t="n">
         <v>0.949748890840709</v>
       </c>
       <c r="K74" s="0" t="n">
@@ -3282,7 +3098,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>77</v>
       </c>
@@ -3298,7 +3114,7 @@
       <c r="F75" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H75" s="0" t="s">
@@ -3307,7 +3123,7 @@
       <c r="I75" s="0" t="n">
         <v>3.32</v>
       </c>
-      <c r="J75" s="1" t="n">
+      <c r="J75" s="0" t="n">
         <v>0.923126259114328</v>
       </c>
       <c r="K75" s="0" t="n">
@@ -3317,7 +3133,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>77</v>
       </c>
@@ -3333,7 +3149,7 @@
       <c r="F76" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H76" s="0" t="s">
@@ -3342,7 +3158,7 @@
       <c r="I76" s="0" t="n">
         <v>0.977</v>
       </c>
-      <c r="J76" s="1" t="n">
+      <c r="J76" s="0" t="n">
         <v>1.89844601103818</v>
       </c>
       <c r="K76" s="0" t="n">
@@ -3352,7 +3168,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>77</v>
       </c>
@@ -3368,7 +3184,7 @@
       <c r="F77" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H77" s="0" t="s">
@@ -3377,7 +3193,7 @@
       <c r="I77" s="0" t="n">
         <v>2.44</v>
       </c>
-      <c r="J77" s="1" t="n">
+      <c r="J77" s="0" t="n">
         <v>0.731840941642506</v>
       </c>
       <c r="K77" s="0" t="n">
@@ -3387,7 +3203,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>77</v>
       </c>
@@ -3403,7 +3219,7 @@
       <c r="F78" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G78" s="8" t="s">
+      <c r="G78" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H78" s="0" t="s">
@@ -3412,7 +3228,7 @@
       <c r="I78" s="0" t="n">
         <v>0.285</v>
       </c>
-      <c r="J78" s="1" t="n">
+      <c r="J78" s="0" t="n">
         <v>5</v>
       </c>
       <c r="K78" s="0" t="n">
@@ -3422,7 +3238,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>77</v>
       </c>
@@ -3438,7 +3254,7 @@
       <c r="F79" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="G79" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H79" s="0" t="s">
@@ -3447,7 +3263,7 @@
       <c r="I79" s="0" t="n">
         <v>1.92</v>
       </c>
-      <c r="J79" s="1" t="n">
+      <c r="J79" s="0" t="n">
         <v>1.26035785906199</v>
       </c>
       <c r="K79" s="0" t="n">
@@ -3457,7 +3273,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>77</v>
       </c>
@@ -3473,7 +3289,7 @@
       <c r="F80" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G80" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H80" s="0" t="s">
@@ -3482,7 +3298,7 @@
       <c r="I80" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="J80" s="1" t="n">
+      <c r="J80" s="0" t="n">
         <v>0.983532270778818</v>
       </c>
       <c r="K80" s="0" t="n">
@@ -3492,7 +3308,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>77</v>
       </c>
@@ -3508,7 +3324,7 @@
       <c r="F81" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G81" s="8" t="s">
+      <c r="G81" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H81" s="0" t="s">
@@ -3517,7 +3333,7 @@
       <c r="I81" s="0" t="n">
         <v>4.94</v>
       </c>
-      <c r="J81" s="1" t="n">
+      <c r="J81" s="0" t="n">
         <v>0.909655723819782</v>
       </c>
       <c r="K81" s="0" t="n">
@@ -3527,7 +3343,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>77</v>
       </c>
@@ -3543,7 +3359,7 @@
       <c r="F82" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G82" s="8" t="s">
+      <c r="G82" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H82" s="0" t="s">
@@ -3552,7 +3368,7 @@
       <c r="I82" s="0" t="n">
         <v>3.64</v>
       </c>
-      <c r="J82" s="1" t="n">
+      <c r="J82" s="0" t="n">
         <v>0.421594456544631</v>
       </c>
       <c r="K82" s="0" t="n">
@@ -3562,7 +3378,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>77</v>
       </c>
@@ -3578,7 +3394,7 @@
       <c r="F83" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G83" s="8" t="s">
+      <c r="G83" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H83" s="0" t="s">
@@ -3587,7 +3403,7 @@
       <c r="I83" s="0" t="n">
         <v>1.17</v>
       </c>
-      <c r="J83" s="1" t="n">
+      <c r="J83" s="0" t="n">
         <v>1.43489148864983</v>
       </c>
       <c r="K83" s="0" t="n">
@@ -3597,7 +3413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>77</v>
       </c>
@@ -3613,7 +3429,7 @@
       <c r="F84" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G84" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H84" s="0" t="s">
@@ -3622,7 +3438,7 @@
       <c r="I84" s="0" t="n">
         <v>1.99</v>
       </c>
-      <c r="J84" s="1" t="n">
+      <c r="J84" s="0" t="n">
         <v>1.17346141859654</v>
       </c>
       <c r="K84" s="0" t="n">
@@ -3632,7 +3448,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>77</v>
       </c>
@@ -3648,7 +3464,7 @@
       <c r="F85" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G85" s="8" t="s">
+      <c r="G85" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H85" s="0" t="s">
@@ -3657,7 +3473,7 @@
       <c r="I85" s="0" t="n">
         <v>4.6</v>
       </c>
-      <c r="J85" s="1" t="n">
+      <c r="J85" s="0" t="n">
         <v>1.03236338117814</v>
       </c>
       <c r="K85" s="0" t="n">
@@ -3667,42 +3483,42 @@
         <v>102</v>
       </c>
     </row>
-    <row r="86" s="15" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="15" t="s">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" s="15" t="n">
+      <c r="B86" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D86" s="15" t="n">
-        <v>4286</v>
-      </c>
-      <c r="F86" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H86" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I86" s="15" t="n">
+      <c r="D86" s="0" t="n">
+        <v>4286</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="0" t="n">
         <v>6.46</v>
       </c>
-      <c r="J86" s="16" t="n">
+      <c r="J86" s="0" t="n">
         <v>0.67</v>
       </c>
-      <c r="K86" s="15" t="n">
+      <c r="K86" s="0" t="n">
         <v>2694384</v>
       </c>
-      <c r="L86" s="17" t="s">
+      <c r="L86" s="0" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>77</v>
       </c>
@@ -3718,7 +3534,7 @@
       <c r="F87" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G87" s="8" t="s">
+      <c r="G87" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H87" s="0" t="s">
@@ -3727,7 +3543,7 @@
       <c r="I87" s="0" t="n">
         <v>5.9</v>
       </c>
-      <c r="J87" s="1" t="n">
+      <c r="J87" s="0" t="n">
         <v>0.912318288248075</v>
       </c>
       <c r="K87" s="0" t="n">
@@ -3737,7 +3553,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>77</v>
       </c>
@@ -3753,7 +3569,7 @@
       <c r="F88" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G88" s="8" t="s">
+      <c r="G88" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H88" s="0" t="s">
@@ -3762,7 +3578,7 @@
       <c r="I88" s="0" t="n">
         <v>4.61</v>
       </c>
-      <c r="J88" s="1" t="n">
+      <c r="J88" s="0" t="n">
         <v>0.984285214144008</v>
       </c>
       <c r="K88" s="0" t="n">
@@ -3772,7 +3588,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>77</v>
       </c>
@@ -3788,7 +3604,7 @@
       <c r="F89" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="G89" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H89" s="0" t="s">
@@ -3797,7 +3613,7 @@
       <c r="I89" s="0" t="n">
         <v>5.98</v>
       </c>
-      <c r="J89" s="1" t="n">
+      <c r="J89" s="0" t="n">
         <v>1.07024630491865</v>
       </c>
       <c r="K89" s="0" t="n">
@@ -3807,7 +3623,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>77</v>
       </c>
@@ -3823,7 +3639,7 @@
       <c r="F90" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="G90" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H90" s="0" t="s">
@@ -3832,7 +3648,7 @@
       <c r="I90" s="0" t="n">
         <v>7.77</v>
       </c>
-      <c r="J90" s="1" t="n">
+      <c r="J90" s="0" t="n">
         <v>1.0458697621819</v>
       </c>
       <c r="K90" s="0" t="n">
@@ -3842,7 +3658,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>77</v>
       </c>
@@ -3858,7 +3674,7 @@
       <c r="F91" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="G91" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H91" s="0" t="s">
@@ -3867,7 +3683,7 @@
       <c r="I91" s="0" t="n">
         <v>1.43</v>
       </c>
-      <c r="J91" s="1" t="n">
+      <c r="J91" s="0" t="n">
         <v>1.25850733975344</v>
       </c>
       <c r="K91" s="0" t="n">
@@ -3877,7 +3693,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>77</v>
       </c>
@@ -3893,7 +3709,7 @@
       <c r="F92" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G92" s="8" t="s">
+      <c r="G92" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H92" s="0" t="s">
@@ -3902,7 +3718,7 @@
       <c r="I92" s="0" t="n">
         <v>1.67</v>
       </c>
-      <c r="J92" s="1" t="n">
+      <c r="J92" s="0" t="n">
         <v>0.619513370343003</v>
       </c>
       <c r="K92" s="0" t="n">
@@ -3912,7 +3728,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>77</v>
       </c>
@@ -3928,7 +3744,7 @@
       <c r="F93" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G93" s="8" t="s">
+      <c r="G93" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H93" s="0" t="s">
@@ -3937,7 +3753,7 @@
       <c r="I93" s="0" t="n">
         <v>0.272</v>
       </c>
-      <c r="J93" s="1" t="n">
+      <c r="J93" s="0" t="n">
         <v>5</v>
       </c>
       <c r="K93" s="0" t="n">
@@ -3947,7 +3763,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>77</v>
       </c>
@@ -3963,7 +3779,7 @@
       <c r="F94" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G94" s="8" t="s">
+      <c r="G94" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H94" s="0" t="s">
@@ -3972,7 +3788,7 @@
       <c r="I94" s="0" t="n">
         <v>1.23</v>
       </c>
-      <c r="J94" s="1" t="n">
+      <c r="J94" s="0" t="n">
         <v>1.88131578242986</v>
       </c>
       <c r="K94" s="0" t="n">
@@ -3982,7 +3798,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>77</v>
       </c>
@@ -3998,7 +3814,7 @@
       <c r="F95" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G95" s="8" t="s">
+      <c r="G95" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H95" s="0" t="s">
@@ -4007,7 +3823,7 @@
       <c r="I95" s="0" t="n">
         <v>3.76</v>
       </c>
-      <c r="J95" s="1" t="n">
+      <c r="J95" s="0" t="n">
         <v>0.884291201129521</v>
       </c>
       <c r="K95" s="0" t="n">
@@ -4017,7 +3833,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>77</v>
       </c>
@@ -4033,7 +3849,7 @@
       <c r="F96" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G96" s="8" t="s">
+      <c r="G96" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H96" s="0" t="s">
@@ -4042,7 +3858,7 @@
       <c r="I96" s="0" t="n">
         <v>6.19</v>
       </c>
-      <c r="J96" s="1" t="n">
+      <c r="J96" s="0" t="n">
         <v>1.0275162819558</v>
       </c>
       <c r="K96" s="0" t="n">
@@ -4052,7 +3868,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>77</v>
       </c>
@@ -4068,7 +3884,7 @@
       <c r="F97" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G97" s="8" t="s">
+      <c r="G97" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H97" s="0" t="s">
@@ -4077,7 +3893,7 @@
       <c r="I97" s="0" t="n">
         <v>13.1</v>
       </c>
-      <c r="J97" s="1" t="n">
+      <c r="J97" s="0" t="n">
         <v>0.815511957910424</v>
       </c>
       <c r="K97" s="0" t="n">
@@ -4087,7 +3903,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>77</v>
       </c>
@@ -4103,7 +3919,7 @@
       <c r="F98" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G98" s="8" t="s">
+      <c r="G98" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H98" s="0" t="s">
@@ -4112,7 +3928,7 @@
       <c r="I98" s="0" t="n">
         <v>4.39</v>
       </c>
-      <c r="J98" s="1" t="n">
+      <c r="J98" s="0" t="n">
         <v>0.821001502285876</v>
       </c>
       <c r="K98" s="0" t="n">
@@ -4122,7 +3938,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>77</v>
       </c>
@@ -4138,7 +3954,7 @@
       <c r="F99" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G99" s="8" t="s">
+      <c r="G99" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H99" s="0" t="s">
@@ -4147,7 +3963,7 @@
       <c r="I99" s="0" t="n">
         <v>2.99</v>
       </c>
-      <c r="J99" s="1" t="n">
+      <c r="J99" s="0" t="n">
         <v>1.3046950007786</v>
       </c>
       <c r="K99" s="0" t="n">
@@ -4157,7 +3973,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>77</v>
       </c>
@@ -4173,7 +3989,7 @@
       <c r="F100" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G100" s="8" t="s">
+      <c r="G100" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H100" s="0" t="s">
@@ -4182,7 +3998,7 @@
       <c r="I100" s="0" t="n">
         <v>2.42</v>
       </c>
-      <c r="J100" s="1" t="n">
+      <c r="J100" s="0" t="n">
         <v>1.64704251205843</v>
       </c>
       <c r="K100" s="0" t="n">
@@ -4193,22 +4009,8 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H42" type="list">
-      <formula1>"spikein,fullRNASeq,fullgDNASeq,fullChIPSeq,Rebalancing"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G100" type="list">
-      <formula1>"V3,Standard,Nano,MiniSeq,HighOutput,MidOutput"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F2:F42" type="list">
-      <formula1>"MiSeq,MiniSeq,NextSeq"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
